--- a/Reports/XlsxReports/FinancialBalanceResults.xlsx
+++ b/Reports/XlsxReports/FinancialBalanceResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <x:si>
     <x:t>Vendor</x:t>
   </x:si>
@@ -779,6 +779,156 @@
   </x:si>
   <x:si>
     <x:t>Vendor#249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#299</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -842,8 +992,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F253" totalsRowShown="0">
-  <x:autoFilter ref="B2:F253"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F303" totalsRowShown="0">
+  <x:autoFilter ref="B2:F303"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Vendor"/>
     <x:tableColumn id="2" name="Incomes"/>
@@ -1143,7 +1293,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F252"/>
+  <x:dimension ref="A1:F302"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1196,16 +1346,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>6.837136</x:v>
+        <x:v>7.221098</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>33.162864</x:v>
+        <x:v>42.778902</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1213,16 +1363,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>11.23084</x:v>
+        <x:v>12.7088</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>68.76916</x:v>
+        <x:v>87.2912</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1230,16 +1380,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>24.96055</x:v>
+        <x:v>27.3548</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>95.03945</x:v>
+        <x:v>122.6452</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1247,16 +1397,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>35.46423</x:v>
+        <x:v>45.48264</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>124.53577</x:v>
+        <x:v>154.51736</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1264,16 +1414,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>35.82917</x:v>
+        <x:v>40.70031</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>164.17083</x:v>
+        <x:v>209.29969</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1281,16 +1431,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>42.13082</x:v>
+        <x:v>52.85056</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>197.86918</x:v>
+        <x:v>247.14944</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1298,16 +1448,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>21.72822</x:v>
+        <x:v>37.51483</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>258.27178</x:v>
+        <x:v>312.48517</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -1315,16 +1465,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>50.75591</x:v>
+        <x:v>71.40125</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>269.24409</x:v>
+        <x:v>328.59875</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1332,16 +1482,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>64.28522</x:v>
+        <x:v>70.82628</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>295.71478</x:v>
+        <x:v>379.17372</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -1349,16 +1499,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>500</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>64.20683</x:v>
+        <x:v>75.16138</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>335.79317</x:v>
+        <x:v>424.83862</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -1366,16 +1516,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>109.3695</x:v>
+        <x:v>125.9763</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>330.6305</x:v>
+        <x:v>424.0237</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -1383,16 +1533,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>600</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>120</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>69.67093</x:v>
+        <x:v>97.26324</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>410.32907</x:v>
+        <x:v>502.73676</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -1400,16 +1550,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>650</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>117.1131</x:v>
+        <x:v>120.5944</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>402.8869</x:v>
+        <x:v>529.4056</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -1417,16 +1567,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>700</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>140</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>51.60803</x:v>
+        <x:v>89.43871</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>508.39197</x:v>
+        <x:v>610.56129</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -1434,16 +1584,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>750</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>105.4524</x:v>
+        <x:v>129.0456</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>494.5476</x:v>
+        <x:v>620.9544</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -1451,16 +1601,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>160</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>94.26</x:v>
+        <x:v>119.2947</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>545.74</x:v>
+        <x:v>680.7053</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -1468,16 +1618,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>850</x:v>
+        <x:v>1020</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
         <x:v>170</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>138.3282</x:v>
+        <x:v>150.8624</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>541.6718</x:v>
+        <x:v>699.1376</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -1485,16 +1635,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>900</x:v>
+        <x:v>1080</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>123.9773</x:v>
+        <x:v>159.2816</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>596.0227</x:v>
+        <x:v>740.7184</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -1502,16 +1652,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>950</x:v>
+        <x:v>1140</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>190</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>101.0544</x:v>
+        <x:v>117.2069</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>658.9456</x:v>
+        <x:v>832.7931</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -1519,16 +1669,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>1000</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>139.7597</x:v>
+        <x:v>144.4282</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>660.2403</x:v>
+        <x:v>855.5718</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -1536,16 +1686,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>1050</x:v>
+        <x:v>1260</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>210</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>148.8634</x:v>
+        <x:v>195.8218</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>691.1366</x:v>
+        <x:v>854.1782</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -1553,16 +1703,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>1100</x:v>
+        <x:v>1320</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>220</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>176.4012</x:v>
+        <x:v>211.2743</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>703.5988</x:v>
+        <x:v>888.7257</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -1570,16 +1720,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>1150</x:v>
+        <x:v>1380</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>230</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>168.3351</x:v>
+        <x:v>184.7255</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>751.6649</x:v>
+        <x:v>965.2745</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -1587,16 +1737,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>1200</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>240</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>137.1806</x:v>
+        <x:v>140.1079</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>822.8194</x:v>
+        <x:v>1059.8921</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -1604,16 +1754,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>1250</x:v>
+        <x:v>1500</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>250</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>244.3168</x:v>
+        <x:v>278.6684</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>755.6832</x:v>
+        <x:v>971.3316</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -1621,16 +1771,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>1300</x:v>
+        <x:v>1560</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>260</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>156.3884</x:v>
+        <x:v>217.9724</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>883.6116</x:v>
+        <x:v>1082.0276</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -1638,16 +1788,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>1350</x:v>
+        <x:v>1620</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>270</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>130.0202</x:v>
+        <x:v>165.2312</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>949.9798</x:v>
+        <x:v>1184.7688</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -1655,16 +1805,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>1400</x:v>
+        <x:v>1680</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>280</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>174.8316</x:v>
+        <x:v>232.8942</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>945.1684</x:v>
+        <x:v>1167.1058</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -1672,16 +1822,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>1450</x:v>
+        <x:v>1740</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>290</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>200.413</x:v>
+        <x:v>282.1248</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>959.587</x:v>
+        <x:v>1167.8752</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -1689,16 +1839,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>1500</x:v>
+        <x:v>1800</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>201.765</x:v>
+        <x:v>256.0494</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>998.235</x:v>
+        <x:v>1243.9506</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -1706,16 +1856,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>1550</x:v>
+        <x:v>1860</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>310</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>201.1634</x:v>
+        <x:v>222.0077</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>1038.8366</x:v>
+        <x:v>1327.9923</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -1723,16 +1873,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>1600</x:v>
+        <x:v>1920</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>320</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>302.3595</x:v>
+        <x:v>359.3243</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>977.6405</x:v>
+        <x:v>1240.6757</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -1740,16 +1890,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>1650</x:v>
+        <x:v>1980</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>330</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>201.8197</x:v>
+        <x:v>218.8406</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>1118.1803</x:v>
+        <x:v>1431.1594</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -1757,16 +1907,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>1700</x:v>
+        <x:v>2040</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>340</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>280.4403</x:v>
+        <x:v>299.5829</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>1079.5597</x:v>
+        <x:v>1400.4171</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -1774,16 +1924,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>1750</x:v>
+        <x:v>2100</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>282.7464</x:v>
+        <x:v>307.1595</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>1117.2536</x:v>
+        <x:v>1442.8405</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -1791,16 +1941,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>1800</x:v>
+        <x:v>2160</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>360</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>270.3849</x:v>
+        <x:v>361.6948</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>1169.6151</x:v>
+        <x:v>1438.3052</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -1808,16 +1958,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>1850</x:v>
+        <x:v>2220</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>370</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>284.6369</x:v>
+        <x:v>389.6746</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>1195.3631</x:v>
+        <x:v>1460.3254</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
@@ -1825,16 +1975,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>1900</x:v>
+        <x:v>2280</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>371.8824</x:v>
+        <x:v>472.8894</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>1148.1176</x:v>
+        <x:v>1427.1106</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -1842,16 +1992,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>1950</x:v>
+        <x:v>2340</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>390</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>339.8758</x:v>
+        <x:v>352.8279</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>1220.1242</x:v>
+        <x:v>1597.1721</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
@@ -1859,16 +2009,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>2000</x:v>
+        <x:v>2400</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>251.4627</x:v>
+        <x:v>306.7253</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>1348.5373</x:v>
+        <x:v>1693.2747</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
@@ -1876,16 +2026,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>2050</x:v>
+        <x:v>2460</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>410</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>259.2181</x:v>
+        <x:v>306.6923</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>1380.7819</x:v>
+        <x:v>1743.3077</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
@@ -1893,16 +2043,16 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>2100</x:v>
+        <x:v>2520</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>420</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>431.0336</x:v>
+        <x:v>490.8908</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>1248.9664</x:v>
+        <x:v>1609.1092</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
@@ -1910,16 +2060,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>2150</x:v>
+        <x:v>2580</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>430</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>250.5577</x:v>
+        <x:v>341.1678</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>1469.4423</x:v>
+        <x:v>1808.8322</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
@@ -1927,16 +2077,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>2200</x:v>
+        <x:v>2640</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>440</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>421.4823</x:v>
+        <x:v>545.9108</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>1338.5177</x:v>
+        <x:v>1654.0892</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
@@ -1944,16 +2094,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>2250</x:v>
+        <x:v>2700</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>450</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>397.8036</x:v>
+        <x:v>466.4126</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>1402.1964</x:v>
+        <x:v>1783.5874</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
@@ -1961,16 +2111,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>2300</x:v>
+        <x:v>2760</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>416.145</x:v>
+        <x:v>540.0214</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>1423.855</x:v>
+        <x:v>1759.9786</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
@@ -1978,16 +2128,16 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>2350</x:v>
+        <x:v>2820</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>470</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>301.7074</x:v>
+        <x:v>321.7192</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>1578.2926</x:v>
+        <x:v>2028.2808</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
@@ -1995,16 +2145,16 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>2400</x:v>
+        <x:v>2880</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>480</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>275.2501</x:v>
+        <x:v>302.6243</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>1644.7499</x:v>
+        <x:v>2097.3757</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
@@ -2012,16 +2162,16 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>2450</x:v>
+        <x:v>2940</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>490</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>432.9543</x:v>
+        <x:v>513.3088</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>1527.0457</x:v>
+        <x:v>1936.6912</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:6">
@@ -2029,16 +2179,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>2500</x:v>
+        <x:v>3000</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>500</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>464.6473</x:v>
+        <x:v>543.7689</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>1535.3527</x:v>
+        <x:v>1956.2311</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:6">
@@ -2046,16 +2196,16 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>2550</x:v>
+        <x:v>3060</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>510</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>348.6939</x:v>
+        <x:v>368.276</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>1691.3061</x:v>
+        <x:v>2181.724</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:6">
@@ -2063,16 +2213,16 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>2600</x:v>
+        <x:v>3120</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>520</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>292.0019</x:v>
+        <x:v>330.4289</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>1787.9981</x:v>
+        <x:v>2269.5711</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:6">
@@ -2080,16 +2230,16 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>2650</x:v>
+        <x:v>3180</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>530</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>440.9697</x:v>
+        <x:v>483.2682</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>1679.0303</x:v>
+        <x:v>2166.7318</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:6">
@@ -2097,16 +2247,16 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>2700</x:v>
+        <x:v>3240</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>540</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>478.7672</x:v>
+        <x:v>614.0156</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>1681.2328</x:v>
+        <x:v>2085.9844</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:6">
@@ -2114,16 +2264,16 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>2750</x:v>
+        <x:v>3300</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>550</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>394.1209</x:v>
+        <x:v>447.7034</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>1805.8791</x:v>
+        <x:v>2302.2966</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:6">
@@ -2131,16 +2281,16 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>2800</x:v>
+        <x:v>3360</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>560</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>393.221</x:v>
+        <x:v>493.2719</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>1846.779</x:v>
+        <x:v>2306.7281</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:6">
@@ -2148,16 +2298,16 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>2850</x:v>
+        <x:v>3420</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>570</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>176.9298</x:v>
+        <x:v>305.4779</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>2103.0702</x:v>
+        <x:v>2544.5221</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:6">
@@ -2165,16 +2315,16 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>2900</x:v>
+        <x:v>3480</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>580</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>367.9803</x:v>
+        <x:v>517.6591</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>1952.0197</x:v>
+        <x:v>2382.3409</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:6">
@@ -2182,16 +2332,16 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>2950</x:v>
+        <x:v>3540</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>590</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>421.4253</x:v>
+        <x:v>464.3056</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>1938.5747</x:v>
+        <x:v>2485.6944</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:6">
@@ -2199,16 +2349,16 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>3000</x:v>
+        <x:v>3600</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>600</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>385.241</x:v>
+        <x:v>450.9683</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>2014.759</x:v>
+        <x:v>2549.0317</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:6">
@@ -2216,16 +2366,16 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>3050</x:v>
+        <x:v>3660</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>610</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>606.5037</x:v>
+        <x:v>698.5959</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>1833.4963</x:v>
+        <x:v>2351.4041</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:6">
@@ -2233,16 +2383,16 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>3100</x:v>
+        <x:v>3720</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>620</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>359.9664</x:v>
+        <x:v>502.5267</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>2120.0336</x:v>
+        <x:v>2597.4733</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:6">
@@ -2250,16 +2400,16 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>3150</x:v>
+        <x:v>3780</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>630</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>567.548</x:v>
+        <x:v>584.4189</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>1952.452</x:v>
+        <x:v>2565.5811</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:6">
@@ -2267,16 +2417,16 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>3200</x:v>
+        <x:v>3840</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>640</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>235.9224</x:v>
+        <x:v>408.8627</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>2324.0776</x:v>
+        <x:v>2791.1373</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:6">
@@ -2284,16 +2434,16 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>3250</x:v>
+        <x:v>3900</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>650</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>456.9602</x:v>
+        <x:v>559.1977</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>2143.0398</x:v>
+        <x:v>2690.8023</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:6">
@@ -2301,16 +2451,16 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>3300</x:v>
+        <x:v>3960</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>660</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>388.8225</x:v>
+        <x:v>492.0906</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>2251.1775</x:v>
+        <x:v>2807.9094</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:6">
@@ -2318,16 +2468,16 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>3350</x:v>
+        <x:v>4020</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>670</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>545.1758</x:v>
+        <x:v>594.5753</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>2134.8242</x:v>
+        <x:v>2755.4247</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:6">
@@ -2335,16 +2485,16 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>3400</x:v>
+        <x:v>4080</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>680</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>468.3589</x:v>
+        <x:v>601.7303</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>2251.6411</x:v>
+        <x:v>2798.2697</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:6">
@@ -2352,16 +2502,16 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>3450</x:v>
+        <x:v>4140</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>690</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>366.9871</x:v>
+        <x:v>425.646</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>2393.0129</x:v>
+        <x:v>3024.354</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:6">
@@ -2369,16 +2519,16 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>3500</x:v>
+        <x:v>4200</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>700</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>489.159</x:v>
+        <x:v>505.4987</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>2310.841</x:v>
+        <x:v>2994.5013</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:6">
@@ -2386,16 +2536,16 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>3550</x:v>
+        <x:v>4260</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>710</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>503.3002</x:v>
+        <x:v>662.0641</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>2336.6998</x:v>
+        <x:v>2887.9359</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:6">
@@ -2403,16 +2553,16 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>3600</x:v>
+        <x:v>4320</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>720</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>577.3129</x:v>
+        <x:v>691.4432</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>2302.6871</x:v>
+        <x:v>2908.5568</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:6">
@@ -2420,16 +2570,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>3650</x:v>
+        <x:v>4380</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>730</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>534.2808</x:v>
+        <x:v>586.3027</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>2385.7192</x:v>
+        <x:v>3063.6973</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:6">
@@ -2437,16 +2587,16 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>3700</x:v>
+        <x:v>4440</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>740</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>422.9736</x:v>
+        <x:v>431.9995</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>2537.0264</x:v>
+        <x:v>3268.0005</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:6">
@@ -2454,16 +2604,16 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>3750</x:v>
+        <x:v>4500</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>750</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>732.9504</x:v>
+        <x:v>836.0052</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>2267.0496</x:v>
+        <x:v>2913.9948</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:6">
@@ -2471,16 +2621,16 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>3800</x:v>
+        <x:v>4560</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>760</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>457.1354</x:v>
+        <x:v>637.1502</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>2582.8646</x:v>
+        <x:v>3162.8498</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:6">
@@ -2488,16 +2638,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>3850</x:v>
+        <x:v>4620</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
         <x:v>770</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>370.7983</x:v>
+        <x:v>471.215</x:v>
       </x:c>
       <x:c r="F80" s="0" t="n">
-        <x:v>2709.2017</x:v>
+        <x:v>3378.785</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:6">
@@ -2505,16 +2655,16 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
-        <x:v>3900</x:v>
+        <x:v>4680</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
         <x:v>780</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>487.0309</x:v>
+        <x:v>648.7768</x:v>
       </x:c>
       <x:c r="F81" s="0" t="n">
-        <x:v>2632.9691</x:v>
+        <x:v>3251.2232</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:6">
@@ -2522,16 +2672,16 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>3950</x:v>
+        <x:v>4740</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
         <x:v>790</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>545.9526</x:v>
+        <x:v>768.5469</x:v>
       </x:c>
       <x:c r="F82" s="0" t="n">
-        <x:v>2614.0474</x:v>
+        <x:v>3181.4531</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:6">
@@ -2539,16 +2689,16 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>4000</x:v>
+        <x:v>4800</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
         <x:v>800</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>538.0402</x:v>
+        <x:v>682.7985</x:v>
       </x:c>
       <x:c r="F83" s="0" t="n">
-        <x:v>2661.9598</x:v>
+        <x:v>3317.2015</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:6">
@@ -2556,16 +2706,16 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>4050</x:v>
+        <x:v>4860</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
         <x:v>810</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>525.6204</x:v>
+        <x:v>580.0847</x:v>
       </x:c>
       <x:c r="F84" s="0" t="n">
-        <x:v>2714.3796</x:v>
+        <x:v>3469.9153</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:6">
@@ -2573,16 +2723,16 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>4100</x:v>
+        <x:v>4920</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
         <x:v>820</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>774.7962</x:v>
+        <x:v>920.7685</x:v>
       </x:c>
       <x:c r="F85" s="0" t="n">
-        <x:v>2505.2038</x:v>
+        <x:v>3179.2315</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:6">
@@ -2590,16 +2740,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
-        <x:v>4150</x:v>
+        <x:v>4980</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
         <x:v>830</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>507.607</x:v>
+        <x:v>550.4172</x:v>
       </x:c>
       <x:c r="F86" s="0" t="n">
-        <x:v>2812.393</x:v>
+        <x:v>3599.5828</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:6">
@@ -2607,16 +2757,16 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>4200</x:v>
+        <x:v>5040</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
         <x:v>840</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>692.8524</x:v>
+        <x:v>740.1461</x:v>
       </x:c>
       <x:c r="F87" s="0" t="n">
-        <x:v>2667.1476</x:v>
+        <x:v>3459.8539</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:6">
@@ -2624,16 +2774,16 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>4250</x:v>
+        <x:v>5100</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
         <x:v>850</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>686.6698</x:v>
+        <x:v>745.9587</x:v>
       </x:c>
       <x:c r="F88" s="0" t="n">
-        <x:v>2713.3302</x:v>
+        <x:v>3504.0413</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:6">
@@ -2641,16 +2791,16 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>4300</x:v>
+        <x:v>5160</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
         <x:v>860</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>645.9196</x:v>
+        <x:v>864.0486</x:v>
       </x:c>
       <x:c r="F89" s="0" t="n">
-        <x:v>2794.0804</x:v>
+        <x:v>3435.9514</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:6">
@@ -2658,16 +2808,16 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>4350</x:v>
+        <x:v>5220</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
         <x:v>870</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>669.2813</x:v>
+        <x:v>916.2618</x:v>
       </x:c>
       <x:c r="F90" s="0" t="n">
-        <x:v>2810.7187</x:v>
+        <x:v>3433.7382</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:6">
@@ -2675,16 +2825,16 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
-        <x:v>4400</x:v>
+        <x:v>5280</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
         <x:v>880</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>861.2014</x:v>
+        <x:v>1095.112</x:v>
       </x:c>
       <x:c r="F91" s="0" t="n">
-        <x:v>2658.7986</x:v>
+        <x:v>3304.888</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:6">
@@ -2692,16 +2842,16 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>4450</x:v>
+        <x:v>5340</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
         <x:v>890</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>775.614</x:v>
+        <x:v>805.1713</x:v>
       </x:c>
       <x:c r="F92" s="0" t="n">
-        <x:v>2784.386</x:v>
+        <x:v>3644.8287</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:6">
@@ -2709,16 +2859,16 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>4500</x:v>
+        <x:v>5400</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
         <x:v>900</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>565.7911</x:v>
+        <x:v>690.1318</x:v>
       </x:c>
       <x:c r="F93" s="0" t="n">
-        <x:v>3034.2089</x:v>
+        <x:v>3809.8682</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:6">
@@ -2726,16 +2876,16 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>4550</x:v>
+        <x:v>5460</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
         <x:v>910</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>575.3376</x:v>
+        <x:v>680.7072</x:v>
       </x:c>
       <x:c r="F94" s="0" t="n">
-        <x:v>3064.6624</x:v>
+        <x:v>3869.2928</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:6">
@@ -2743,16 +2893,16 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>4600</x:v>
+        <x:v>5520</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
         <x:v>920</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>944.1689</x:v>
+        <x:v>1075.285</x:v>
       </x:c>
       <x:c r="F95" s="0" t="n">
-        <x:v>2735.8311</x:v>
+        <x:v>3524.715</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:6">
@@ -2760,16 +2910,16 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
-        <x:v>4650</x:v>
+        <x:v>5580</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
         <x:v>930</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>541.9038</x:v>
+        <x:v>737.8745</x:v>
       </x:c>
       <x:c r="F96" s="0" t="n">
-        <x:v>3178.0962</x:v>
+        <x:v>3912.1255</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:6">
@@ -2777,16 +2927,16 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
-        <x:v>4700</x:v>
+        <x:v>5640</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
         <x:v>940</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>900.4395</x:v>
+        <x:v>1166.264</x:v>
       </x:c>
       <x:c r="F97" s="0" t="n">
-        <x:v>2859.5605</x:v>
+        <x:v>3533.736</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:6">
@@ -2794,16 +2944,16 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
-        <x:v>4750</x:v>
+        <x:v>5700</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
         <x:v>950</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>839.8075</x:v>
+        <x:v>984.6489</x:v>
       </x:c>
       <x:c r="F98" s="0" t="n">
-        <x:v>2960.1925</x:v>
+        <x:v>3765.3511</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:6">
@@ -2811,16 +2961,16 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
-        <x:v>4800</x:v>
+        <x:v>5760</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
         <x:v>960</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>868.4766</x:v>
+        <x:v>1127.001</x:v>
       </x:c>
       <x:c r="F99" s="0" t="n">
-        <x:v>2971.5234</x:v>
+        <x:v>3672.999</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:6">
@@ -2828,16 +2978,16 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>4850</x:v>
+        <x:v>5820</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
         <x:v>970</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>622.6728</x:v>
+        <x:v>663.9736</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>3257.3272</x:v>
+        <x:v>4186.0264</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:6">
@@ -2845,16 +2995,16 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
-        <x:v>4900</x:v>
+        <x:v>5880</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
         <x:v>980</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>561.9689</x:v>
+        <x:v>617.8578</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>3358.0311</x:v>
+        <x:v>4282.1422</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:6">
@@ -2862,16 +3012,16 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="C102" s="0" t="n">
-        <x:v>4950</x:v>
+        <x:v>5940</x:v>
       </x:c>
       <x:c r="D102" s="0" t="n">
         <x:v>990</x:v>
       </x:c>
       <x:c r="E102" s="0" t="n">
-        <x:v>874.7444</x:v>
+        <x:v>1037.093</x:v>
       </x:c>
       <x:c r="F102" s="0" t="n">
-        <x:v>3085.2556</x:v>
+        <x:v>3912.907</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:6">
@@ -2879,16 +3029,16 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="C103" s="0" t="n">
-        <x:v>5000</x:v>
+        <x:v>6000</x:v>
       </x:c>
       <x:c r="D103" s="0" t="n">
         <x:v>1000</x:v>
       </x:c>
       <x:c r="E103" s="0" t="n">
-        <x:v>929.2946</x:v>
+        <x:v>1087.538</x:v>
       </x:c>
       <x:c r="F103" s="0" t="n">
-        <x:v>3070.7054</x:v>
+        <x:v>3912.462</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:6">
@@ -2896,16 +3046,16 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="C104" s="0" t="n">
-        <x:v>5050</x:v>
+        <x:v>6060</x:v>
       </x:c>
       <x:c r="D104" s="0" t="n">
         <x:v>1010</x:v>
       </x:c>
       <x:c r="E104" s="0" t="n">
-        <x:v>690.5508</x:v>
+        <x:v>729.3309</x:v>
       </x:c>
       <x:c r="F104" s="0" t="n">
-        <x:v>3349.4492</x:v>
+        <x:v>4320.6691</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:6">
@@ -2913,16 +3063,16 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="C105" s="0" t="n">
-        <x:v>5100</x:v>
+        <x:v>6120</x:v>
       </x:c>
       <x:c r="D105" s="0" t="n">
         <x:v>1020</x:v>
       </x:c>
       <x:c r="E105" s="0" t="n">
-        <x:v>572.7729</x:v>
+        <x:v>648.1489</x:v>
       </x:c>
       <x:c r="F105" s="0" t="n">
-        <x:v>3507.2271</x:v>
+        <x:v>4451.8511</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:6">
@@ -2930,16 +3080,16 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="C106" s="0" t="n">
-        <x:v>5150</x:v>
+        <x:v>6180</x:v>
       </x:c>
       <x:c r="D106" s="0" t="n">
         <x:v>1030</x:v>
       </x:c>
       <x:c r="E106" s="0" t="n">
-        <x:v>856.9788</x:v>
+        <x:v>939.1816</x:v>
       </x:c>
       <x:c r="F106" s="0" t="n">
-        <x:v>3263.0212</x:v>
+        <x:v>4210.8184</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:6">
@@ -2947,16 +3097,16 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C107" s="0" t="n">
-        <x:v>5200</x:v>
+        <x:v>6240</x:v>
       </x:c>
       <x:c r="D107" s="0" t="n">
         <x:v>1040</x:v>
       </x:c>
       <x:c r="E107" s="0" t="n">
-        <x:v>922.0701</x:v>
+        <x:v>1182.549</x:v>
       </x:c>
       <x:c r="F107" s="0" t="n">
-        <x:v>3237.9299</x:v>
+        <x:v>4017.451</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:6">
@@ -2964,16 +3114,16 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="C108" s="0" t="n">
-        <x:v>5250</x:v>
+        <x:v>6300</x:v>
       </x:c>
       <x:c r="D108" s="0" t="n">
         <x:v>1050</x:v>
       </x:c>
       <x:c r="E108" s="0" t="n">
-        <x:v>752.4126</x:v>
+        <x:v>854.7065</x:v>
       </x:c>
       <x:c r="F108" s="0" t="n">
-        <x:v>3447.5874</x:v>
+        <x:v>4395.2935</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:6">
@@ -2981,16 +3131,16 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="C109" s="0" t="n">
-        <x:v>5300</x:v>
+        <x:v>6360</x:v>
       </x:c>
       <x:c r="D109" s="0" t="n">
         <x:v>1060</x:v>
       </x:c>
       <x:c r="E109" s="0" t="n">
-        <x:v>744.3112</x:v>
+        <x:v>933.6932</x:v>
       </x:c>
       <x:c r="F109" s="0" t="n">
-        <x:v>3495.6888</x:v>
+        <x:v>4366.3068</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:6">
@@ -2998,16 +3148,16 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="C110" s="0" t="n">
-        <x:v>5350</x:v>
+        <x:v>6420</x:v>
       </x:c>
       <x:c r="D110" s="0" t="n">
         <x:v>1070</x:v>
       </x:c>
       <x:c r="E110" s="0" t="n">
-        <x:v>332.1313</x:v>
+        <x:v>573.441</x:v>
       </x:c>
       <x:c r="F110" s="0" t="n">
-        <x:v>3947.8687</x:v>
+        <x:v>4776.559</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:6">
@@ -3015,16 +3165,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C111" s="0" t="n">
-        <x:v>5400</x:v>
+        <x:v>6480</x:v>
       </x:c>
       <x:c r="D111" s="0" t="n">
         <x:v>1080</x:v>
       </x:c>
       <x:c r="E111" s="0" t="n">
-        <x:v>685.2048</x:v>
+        <x:v>963.9168</x:v>
       </x:c>
       <x:c r="F111" s="0" t="n">
-        <x:v>3634.7952</x:v>
+        <x:v>4436.0832</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:6">
@@ -3032,16 +3182,16 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C112" s="0" t="n">
-        <x:v>5450</x:v>
+        <x:v>6540</x:v>
       </x:c>
       <x:c r="D112" s="0" t="n">
         <x:v>1090</x:v>
       </x:c>
       <x:c r="E112" s="0" t="n">
-        <x:v>778.5654</x:v>
+        <x:v>857.7849</x:v>
       </x:c>
       <x:c r="F112" s="0" t="n">
-        <x:v>3581.4346</x:v>
+        <x:v>4592.2151</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:6">
@@ -3049,16 +3199,16 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="C113" s="0" t="n">
-        <x:v>5500</x:v>
+        <x:v>6600</x:v>
       </x:c>
       <x:c r="D113" s="0" t="n">
         <x:v>1100</x:v>
       </x:c>
       <x:c r="E113" s="0" t="n">
-        <x:v>706.2752</x:v>
+        <x:v>826.7752</x:v>
       </x:c>
       <x:c r="F113" s="0" t="n">
-        <x:v>3693.7248</x:v>
+        <x:v>4673.2248</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:6">
@@ -3066,16 +3216,16 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="C114" s="0" t="n">
-        <x:v>5550</x:v>
+        <x:v>6660</x:v>
       </x:c>
       <x:c r="D114" s="0" t="n">
         <x:v>1110</x:v>
       </x:c>
       <x:c r="E114" s="0" t="n">
-        <x:v>1103.638</x:v>
+        <x:v>1271.215</x:v>
       </x:c>
       <x:c r="F114" s="0" t="n">
-        <x:v>3336.362</x:v>
+        <x:v>4278.785</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:6">
@@ -3083,16 +3233,16 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="C115" s="0" t="n">
-        <x:v>5600</x:v>
+        <x:v>6720</x:v>
       </x:c>
       <x:c r="D115" s="0" t="n">
         <x:v>1120</x:v>
       </x:c>
       <x:c r="E115" s="0" t="n">
-        <x:v>650.262</x:v>
+        <x:v>907.7902</x:v>
       </x:c>
       <x:c r="F115" s="0" t="n">
-        <x:v>3829.738</x:v>
+        <x:v>4692.2098</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:6">
@@ -3100,16 +3250,16 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="C116" s="0" t="n">
-        <x:v>5650</x:v>
+        <x:v>6780</x:v>
       </x:c>
       <x:c r="D116" s="0" t="n">
         <x:v>1130</x:v>
       </x:c>
       <x:c r="E116" s="0" t="n">
-        <x:v>1017.983</x:v>
+        <x:v>1048.243</x:v>
       </x:c>
       <x:c r="F116" s="0" t="n">
-        <x:v>3502.017</x:v>
+        <x:v>4601.757</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:6">
@@ -3117,16 +3267,16 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="C117" s="0" t="n">
-        <x:v>5700</x:v>
+        <x:v>6840</x:v>
       </x:c>
       <x:c r="D117" s="0" t="n">
         <x:v>1140</x:v>
       </x:c>
       <x:c r="E117" s="0" t="n">
-        <x:v>420.2368</x:v>
+        <x:v>728.2867</x:v>
       </x:c>
       <x:c r="F117" s="0" t="n">
-        <x:v>4139.7632</x:v>
+        <x:v>4971.7133</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:6">
@@ -3134,16 +3284,16 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="C118" s="0" t="n">
-        <x:v>5750</x:v>
+        <x:v>6900</x:v>
       </x:c>
       <x:c r="D118" s="0" t="n">
         <x:v>1150</x:v>
       </x:c>
       <x:c r="E118" s="0" t="n">
-        <x:v>808.468</x:v>
+        <x:v>989.3497</x:v>
       </x:c>
       <x:c r="F118" s="0" t="n">
-        <x:v>3791.532</x:v>
+        <x:v>4760.6503</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:6">
@@ -3151,16 +3301,16 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="C119" s="0" t="n">
-        <x:v>5800</x:v>
+        <x:v>6960</x:v>
       </x:c>
       <x:c r="D119" s="0" t="n">
         <x:v>1160</x:v>
       </x:c>
       <x:c r="E119" s="0" t="n">
-        <x:v>683.385</x:v>
+        <x:v>864.8866</x:v>
       </x:c>
       <x:c r="F119" s="0" t="n">
-        <x:v>3956.615</x:v>
+        <x:v>4935.1134</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:6">
@@ -3168,16 +3318,16 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="C120" s="0" t="n">
-        <x:v>5850</x:v>
+        <x:v>7020</x:v>
       </x:c>
       <x:c r="D120" s="0" t="n">
         <x:v>1170</x:v>
       </x:c>
       <x:c r="E120" s="0" t="n">
-        <x:v>952.0234</x:v>
+        <x:v>1038.288</x:v>
       </x:c>
       <x:c r="F120" s="0" t="n">
-        <x:v>3727.9766</x:v>
+        <x:v>4811.712</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:6">
@@ -3185,16 +3335,16 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="C121" s="0" t="n">
-        <x:v>5900</x:v>
+        <x:v>7080</x:v>
       </x:c>
       <x:c r="D121" s="0" t="n">
         <x:v>1180</x:v>
       </x:c>
       <x:c r="E121" s="0" t="n">
-        <x:v>812.7404</x:v>
+        <x:v>1044.179</x:v>
       </x:c>
       <x:c r="F121" s="0" t="n">
-        <x:v>3907.2596</x:v>
+        <x:v>4855.821</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:6">
@@ -3202,16 +3352,16 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="C122" s="0" t="n">
-        <x:v>5950</x:v>
+        <x:v>7140</x:v>
       </x:c>
       <x:c r="D122" s="0" t="n">
         <x:v>1190</x:v>
       </x:c>
       <x:c r="E122" s="0" t="n">
-        <x:v>632.9197</x:v>
+        <x:v>734.0851</x:v>
       </x:c>
       <x:c r="F122" s="0" t="n">
-        <x:v>4127.0803</x:v>
+        <x:v>5215.9149</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:6">
@@ -3219,16 +3369,16 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="C123" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>7200</x:v>
       </x:c>
       <x:c r="D123" s="0" t="n">
         <x:v>1200</x:v>
       </x:c>
       <x:c r="E123" s="0" t="n">
-        <x:v>838.5582</x:v>
+        <x:v>866.5691</x:v>
       </x:c>
       <x:c r="F123" s="0" t="n">
-        <x:v>3961.4418</x:v>
+        <x:v>5133.4309</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:6">
@@ -3236,16 +3386,16 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>6050</x:v>
+        <x:v>7260</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>1210</x:v>
       </x:c>
       <x:c r="E124" s="0" t="n">
-        <x:v>857.737</x:v>
+        <x:v>1128.307</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>3982.263</x:v>
+        <x:v>4921.693</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:6">
@@ -3253,16 +3403,16 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="C125" s="0" t="n">
-        <x:v>6100</x:v>
+        <x:v>7320</x:v>
       </x:c>
       <x:c r="D125" s="0" t="n">
         <x:v>1220</x:v>
       </x:c>
       <x:c r="E125" s="0" t="n">
-        <x:v>978.2247</x:v>
+        <x:v>1171.612</x:v>
       </x:c>
       <x:c r="F125" s="0" t="n">
-        <x:v>3901.7753</x:v>
+        <x:v>4928.388</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:6">
@@ -3270,16 +3420,16 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="C126" s="0" t="n">
-        <x:v>6150</x:v>
+        <x:v>7380</x:v>
       </x:c>
       <x:c r="D126" s="0" t="n">
         <x:v>1230</x:v>
       </x:c>
       <x:c r="E126" s="0" t="n">
-        <x:v>900.2266</x:v>
+        <x:v>987.8798</x:v>
       </x:c>
       <x:c r="F126" s="0" t="n">
-        <x:v>4019.7734</x:v>
+        <x:v>5162.1202</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:6">
@@ -3287,16 +3437,16 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="C127" s="0" t="n">
-        <x:v>6200</x:v>
+        <x:v>7440</x:v>
       </x:c>
       <x:c r="D127" s="0" t="n">
         <x:v>1240</x:v>
       </x:c>
       <x:c r="E127" s="0" t="n">
-        <x:v>708.7665</x:v>
+        <x:v>723.8909</x:v>
       </x:c>
       <x:c r="F127" s="0" t="n">
-        <x:v>4251.2335</x:v>
+        <x:v>5476.1091</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:6">
@@ -3304,16 +3454,16 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="C128" s="0" t="n">
-        <x:v>6250</x:v>
+        <x:v>7500</x:v>
       </x:c>
       <x:c r="D128" s="0" t="n">
         <x:v>1250</x:v>
       </x:c>
       <x:c r="E128" s="0" t="n">
-        <x:v>1221.584</x:v>
+        <x:v>1393.342</x:v>
       </x:c>
       <x:c r="F128" s="0" t="n">
-        <x:v>3778.416</x:v>
+        <x:v>4856.658</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:6">
@@ -3321,16 +3471,16 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="C129" s="0" t="n">
-        <x:v>6300</x:v>
+        <x:v>7560</x:v>
       </x:c>
       <x:c r="D129" s="0" t="n">
         <x:v>1260</x:v>
       </x:c>
       <x:c r="E129" s="0" t="n">
-        <x:v>757.8823</x:v>
+        <x:v>1056.328</x:v>
       </x:c>
       <x:c r="F129" s="0" t="n">
-        <x:v>4282.1177</x:v>
+        <x:v>5243.672</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:6">
@@ -3338,16 +3488,16 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="C130" s="0" t="n">
-        <x:v>6350</x:v>
+        <x:v>7620</x:v>
       </x:c>
       <x:c r="D130" s="0" t="n">
         <x:v>1270</x:v>
       </x:c>
       <x:c r="E130" s="0" t="n">
-        <x:v>611.5764</x:v>
+        <x:v>777.1988</x:v>
       </x:c>
       <x:c r="F130" s="0" t="n">
-        <x:v>4468.4236</x:v>
+        <x:v>5572.8012</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:6">
@@ -3355,16 +3505,16 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="C131" s="0" t="n">
-        <x:v>6400</x:v>
+        <x:v>7680</x:v>
       </x:c>
       <x:c r="D131" s="0" t="n">
         <x:v>1280</x:v>
       </x:c>
       <x:c r="E131" s="0" t="n">
-        <x:v>799.2302</x:v>
+        <x:v>1064.659</x:v>
       </x:c>
       <x:c r="F131" s="0" t="n">
-        <x:v>4320.7698</x:v>
+        <x:v>5335.341</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:6">
@@ -3372,16 +3522,16 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="C132" s="0" t="n">
-        <x:v>6450</x:v>
+        <x:v>7740</x:v>
       </x:c>
       <x:c r="D132" s="0" t="n">
         <x:v>1290</x:v>
       </x:c>
       <x:c r="E132" s="0" t="n">
-        <x:v>891.4922</x:v>
+        <x:v>1254.969</x:v>
       </x:c>
       <x:c r="F132" s="0" t="n">
-        <x:v>4268.5078</x:v>
+        <x:v>5195.031</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:6">
@@ -3389,16 +3539,16 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="C133" s="0" t="n">
-        <x:v>6500</x:v>
+        <x:v>7800</x:v>
       </x:c>
       <x:c r="D133" s="0" t="n">
         <x:v>1300</x:v>
       </x:c>
       <x:c r="E133" s="0" t="n">
-        <x:v>874.3152</x:v>
+        <x:v>1109.548</x:v>
       </x:c>
       <x:c r="F133" s="0" t="n">
-        <x:v>4325.6848</x:v>
+        <x:v>5390.452</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:6">
@@ -3406,16 +3556,16 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="C134" s="0" t="n">
-        <x:v>6550</x:v>
+        <x:v>7860</x:v>
       </x:c>
       <x:c r="D134" s="0" t="n">
         <x:v>1310</x:v>
       </x:c>
       <x:c r="E134" s="0" t="n">
-        <x:v>850.0775</x:v>
+        <x:v>938.1617</x:v>
       </x:c>
       <x:c r="F134" s="0" t="n">
-        <x:v>4389.9225</x:v>
+        <x:v>5611.8383</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:6">
@@ -3423,16 +3573,16 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="C135" s="0" t="n">
-        <x:v>6600</x:v>
+        <x:v>7920</x:v>
       </x:c>
       <x:c r="D135" s="0" t="n">
         <x:v>1320</x:v>
       </x:c>
       <x:c r="E135" s="0" t="n">
-        <x:v>1247.233</x:v>
+        <x:v>1482.213</x:v>
       </x:c>
       <x:c r="F135" s="0" t="n">
-        <x:v>4032.767</x:v>
+        <x:v>5117.787</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:6">
@@ -3440,16 +3590,16 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="C136" s="0" t="n">
-        <x:v>6650</x:v>
+        <x:v>7980</x:v>
       </x:c>
       <x:c r="D136" s="0" t="n">
         <x:v>1330</x:v>
       </x:c>
       <x:c r="E136" s="0" t="n">
-        <x:v>813.3943</x:v>
+        <x:v>881.9938</x:v>
       </x:c>
       <x:c r="F136" s="0" t="n">
-        <x:v>4506.6057</x:v>
+        <x:v>5768.0062</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:6">
@@ -3457,16 +3607,16 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="C137" s="0" t="n">
-        <x:v>6700</x:v>
+        <x:v>8040</x:v>
       </x:c>
       <x:c r="D137" s="0" t="n">
         <x:v>1340</x:v>
       </x:c>
       <x:c r="E137" s="0" t="n">
-        <x:v>1105.265</x:v>
+        <x:v>1180.709</x:v>
       </x:c>
       <x:c r="F137" s="0" t="n">
-        <x:v>4254.735</x:v>
+        <x:v>5519.291</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:6">
@@ -3474,16 +3624,16 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="C138" s="0" t="n">
-        <x:v>6750</x:v>
+        <x:v>8100</x:v>
       </x:c>
       <x:c r="D138" s="0" t="n">
         <x:v>1350</x:v>
       </x:c>
       <x:c r="E138" s="0" t="n">
-        <x:v>1090.593</x:v>
+        <x:v>1184.758</x:v>
       </x:c>
       <x:c r="F138" s="0" t="n">
-        <x:v>4309.407</x:v>
+        <x:v>5565.242</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:6">
@@ -3491,16 +3641,16 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C139" s="0" t="n">
-        <x:v>6800</x:v>
+        <x:v>8160</x:v>
       </x:c>
       <x:c r="D139" s="0" t="n">
         <x:v>1360</x:v>
       </x:c>
       <x:c r="E139" s="0" t="n">
-        <x:v>1021.454</x:v>
+        <x:v>1366.402</x:v>
       </x:c>
       <x:c r="F139" s="0" t="n">
-        <x:v>4418.546</x:v>
+        <x:v>5433.598</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:6">
@@ -3508,16 +3658,16 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="C140" s="0" t="n">
-        <x:v>6850</x:v>
+        <x:v>8220</x:v>
       </x:c>
       <x:c r="D140" s="0" t="n">
         <x:v>1370</x:v>
       </x:c>
       <x:c r="E140" s="0" t="n">
-        <x:v>1053.926</x:v>
+        <x:v>1442.849</x:v>
       </x:c>
       <x:c r="F140" s="0" t="n">
-        <x:v>4426.074</x:v>
+        <x:v>5407.151</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:6">
@@ -3525,16 +3675,16 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="C141" s="0" t="n">
-        <x:v>6900</x:v>
+        <x:v>8280</x:v>
       </x:c>
       <x:c r="D141" s="0" t="n">
         <x:v>1380</x:v>
       </x:c>
       <x:c r="E141" s="0" t="n">
-        <x:v>1350.521</x:v>
+        <x:v>1717.335</x:v>
       </x:c>
       <x:c r="F141" s="0" t="n">
-        <x:v>4169.479</x:v>
+        <x:v>5182.665</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:6">
@@ -3542,16 +3692,16 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="C142" s="0" t="n">
-        <x:v>6950</x:v>
+        <x:v>8340</x:v>
       </x:c>
       <x:c r="D142" s="0" t="n">
         <x:v>1390</x:v>
       </x:c>
       <x:c r="E142" s="0" t="n">
-        <x:v>1211.352</x:v>
+        <x:v>1257.515</x:v>
       </x:c>
       <x:c r="F142" s="0" t="n">
-        <x:v>4348.648</x:v>
+        <x:v>5692.485</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:6">
@@ -3559,16 +3709,16 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="C143" s="0" t="n">
-        <x:v>7000</x:v>
+        <x:v>8400</x:v>
       </x:c>
       <x:c r="D143" s="0" t="n">
         <x:v>1400</x:v>
       </x:c>
       <x:c r="E143" s="0" t="n">
-        <x:v>880.1195</x:v>
+        <x:v>1073.538</x:v>
       </x:c>
       <x:c r="F143" s="0" t="n">
-        <x:v>4719.8805</x:v>
+        <x:v>5926.462</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:6">
@@ -3576,16 +3726,16 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="C144" s="0" t="n">
-        <x:v>7050</x:v>
+        <x:v>8460</x:v>
       </x:c>
       <x:c r="D144" s="0" t="n">
         <x:v>1410</x:v>
       </x:c>
       <x:c r="E144" s="0" t="n">
-        <x:v>891.4573</x:v>
+        <x:v>1054.722</x:v>
       </x:c>
       <x:c r="F144" s="0" t="n">
-        <x:v>4748.5427</x:v>
+        <x:v>5995.278</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:6">
@@ -3593,16 +3743,16 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="C145" s="0" t="n">
-        <x:v>7100</x:v>
+        <x:v>8520</x:v>
       </x:c>
       <x:c r="D145" s="0" t="n">
         <x:v>1420</x:v>
       </x:c>
       <x:c r="E145" s="0" t="n">
-        <x:v>1457.304</x:v>
+        <x:v>1659.678</x:v>
       </x:c>
       <x:c r="F145" s="0" t="n">
-        <x:v>4222.696</x:v>
+        <x:v>5440.322</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:6">
@@ -3610,16 +3760,16 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="C146" s="0" t="n">
-        <x:v>7150</x:v>
+        <x:v>8580</x:v>
       </x:c>
       <x:c r="D146" s="0" t="n">
         <x:v>1430</x:v>
       </x:c>
       <x:c r="E146" s="0" t="n">
-        <x:v>833.25</x:v>
+        <x:v>1134.581</x:v>
       </x:c>
       <x:c r="F146" s="0" t="n">
-        <x:v>4886.75</x:v>
+        <x:v>6015.419</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:6">
@@ -3627,16 +3777,16 @@
         <x:v>149</x:v>
       </x:c>
       <x:c r="C147" s="0" t="n">
-        <x:v>7200</x:v>
+        <x:v>8640</x:v>
       </x:c>
       <x:c r="D147" s="0" t="n">
         <x:v>1440</x:v>
       </x:c>
       <x:c r="E147" s="0" t="n">
-        <x:v>1379.397</x:v>
+        <x:v>1786.617</x:v>
       </x:c>
       <x:c r="F147" s="0" t="n">
-        <x:v>4380.603</x:v>
+        <x:v>5413.383</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:6">
@@ -3644,16 +3794,16 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="C148" s="0" t="n">
-        <x:v>7250</x:v>
+        <x:v>8700</x:v>
       </x:c>
       <x:c r="D148" s="0" t="n">
         <x:v>1450</x:v>
       </x:c>
       <x:c r="E148" s="0" t="n">
-        <x:v>1281.812</x:v>
+        <x:v>1502.885</x:v>
       </x:c>
       <x:c r="F148" s="0" t="n">
-        <x:v>4518.188</x:v>
+        <x:v>5747.115</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:6">
@@ -3661,16 +3811,16 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="C149" s="0" t="n">
-        <x:v>7300</x:v>
+        <x:v>8760</x:v>
       </x:c>
       <x:c r="D149" s="0" t="n">
         <x:v>1460</x:v>
       </x:c>
       <x:c r="E149" s="0" t="n">
-        <x:v>1320.808</x:v>
+        <x:v>1713.981</x:v>
       </x:c>
       <x:c r="F149" s="0" t="n">
-        <x:v>4519.192</x:v>
+        <x:v>5586.019</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:6">
@@ -3678,16 +3828,16 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="C150" s="0" t="n">
-        <x:v>7350</x:v>
+        <x:v>8820</x:v>
       </x:c>
       <x:c r="D150" s="0" t="n">
         <x:v>1470</x:v>
       </x:c>
       <x:c r="E150" s="0" t="n">
-        <x:v>943.6381</x:v>
+        <x:v>1006.228</x:v>
       </x:c>
       <x:c r="F150" s="0" t="n">
-        <x:v>4936.3619</x:v>
+        <x:v>6343.772</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:6">
@@ -3695,16 +3845,16 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="C151" s="0" t="n">
-        <x:v>7400</x:v>
+        <x:v>8880</x:v>
       </x:c>
       <x:c r="D151" s="0" t="n">
         <x:v>1480</x:v>
       </x:c>
       <x:c r="E151" s="0" t="n">
-        <x:v>848.6877</x:v>
+        <x:v>933.0915</x:v>
       </x:c>
       <x:c r="F151" s="0" t="n">
-        <x:v>5071.3123</x:v>
+        <x:v>6466.9085</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:6">
@@ -3712,16 +3862,16 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C152" s="0" t="n">
-        <x:v>7450</x:v>
+        <x:v>8940</x:v>
       </x:c>
       <x:c r="D152" s="0" t="n">
         <x:v>1490</x:v>
       </x:c>
       <x:c r="E152" s="0" t="n">
-        <x:v>1316.534</x:v>
+        <x:v>1560.878</x:v>
       </x:c>
       <x:c r="F152" s="0" t="n">
-        <x:v>4643.466</x:v>
+        <x:v>5889.122</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:6">
@@ -3729,16 +3879,16 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="C153" s="0" t="n">
-        <x:v>7500</x:v>
+        <x:v>9000</x:v>
       </x:c>
       <x:c r="D153" s="0" t="n">
         <x:v>1500</x:v>
       </x:c>
       <x:c r="E153" s="0" t="n">
-        <x:v>1393.942</x:v>
+        <x:v>1631.307</x:v>
       </x:c>
       <x:c r="F153" s="0" t="n">
-        <x:v>4606.058</x:v>
+        <x:v>5868.693</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:6">
@@ -3746,16 +3896,16 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="C154" s="0" t="n">
-        <x:v>7550</x:v>
+        <x:v>9060</x:v>
       </x:c>
       <x:c r="D154" s="0" t="n">
         <x:v>1510</x:v>
       </x:c>
       <x:c r="E154" s="0" t="n">
-        <x:v>1032.408</x:v>
+        <x:v>1090.386</x:v>
       </x:c>
       <x:c r="F154" s="0" t="n">
-        <x:v>5007.592</x:v>
+        <x:v>6459.614</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:6">
@@ -3763,16 +3913,16 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="C155" s="0" t="n">
-        <x:v>7600</x:v>
+        <x:v>9120</x:v>
       </x:c>
       <x:c r="D155" s="0" t="n">
         <x:v>1520</x:v>
       </x:c>
       <x:c r="E155" s="0" t="n">
-        <x:v>853.5439</x:v>
+        <x:v>965.869</x:v>
       </x:c>
       <x:c r="F155" s="0" t="n">
-        <x:v>5226.4561</x:v>
+        <x:v>6634.131</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:6">
@@ -3780,16 +3930,16 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="C156" s="0" t="n">
-        <x:v>7650</x:v>
+        <x:v>9180</x:v>
       </x:c>
       <x:c r="D156" s="0" t="n">
         <x:v>1530</x:v>
       </x:c>
       <x:c r="E156" s="0" t="n">
-        <x:v>1272.988</x:v>
+        <x:v>1395.095</x:v>
       </x:c>
       <x:c r="F156" s="0" t="n">
-        <x:v>4847.012</x:v>
+        <x:v>6254.905</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:6">
@@ -3797,16 +3947,16 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="C157" s="0" t="n">
-        <x:v>7700</x:v>
+        <x:v>9240</x:v>
       </x:c>
       <x:c r="D157" s="0" t="n">
         <x:v>1540</x:v>
       </x:c>
       <x:c r="E157" s="0" t="n">
-        <x:v>1365.373</x:v>
+        <x:v>1751.082</x:v>
       </x:c>
       <x:c r="F157" s="0" t="n">
-        <x:v>4794.627</x:v>
+        <x:v>5948.918</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:6">
@@ -3814,16 +3964,16 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C158" s="0" t="n">
-        <x:v>7750</x:v>
+        <x:v>9300</x:v>
       </x:c>
       <x:c r="D158" s="0" t="n">
         <x:v>1550</x:v>
       </x:c>
       <x:c r="E158" s="0" t="n">
-        <x:v>1110.704</x:v>
+        <x:v>1261.71</x:v>
       </x:c>
       <x:c r="F158" s="0" t="n">
-        <x:v>5089.296</x:v>
+        <x:v>6488.29</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:6">
@@ -3831,16 +3981,16 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="C159" s="0" t="n">
-        <x:v>7800</x:v>
+        <x:v>9360</x:v>
       </x:c>
       <x:c r="D159" s="0" t="n">
         <x:v>1560</x:v>
       </x:c>
       <x:c r="E159" s="0" t="n">
-        <x:v>1095.401</x:v>
+        <x:v>1374.115</x:v>
       </x:c>
       <x:c r="F159" s="0" t="n">
-        <x:v>5144.599</x:v>
+        <x:v>6425.885</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:6">
@@ -3848,16 +3998,16 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="C160" s="0" t="n">
-        <x:v>7850</x:v>
+        <x:v>9420</x:v>
       </x:c>
       <x:c r="D160" s="0" t="n">
         <x:v>1570</x:v>
       </x:c>
       <x:c r="E160" s="0" t="n">
-        <x:v>487.3329</x:v>
+        <x:v>841.4041</x:v>
       </x:c>
       <x:c r="F160" s="0" t="n">
-        <x:v>5792.6671</x:v>
+        <x:v>7008.5959</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:6">
@@ -3865,16 +4015,16 @@
         <x:v>163</x:v>
       </x:c>
       <x:c r="C161" s="0" t="n">
-        <x:v>7900</x:v>
+        <x:v>9480</x:v>
       </x:c>
       <x:c r="D161" s="0" t="n">
         <x:v>1580</x:v>
       </x:c>
       <x:c r="E161" s="0" t="n">
-        <x:v>1002.429</x:v>
+        <x:v>1410.175</x:v>
       </x:c>
       <x:c r="F161" s="0" t="n">
-        <x:v>5317.571</x:v>
+        <x:v>6489.825</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:6">
@@ -3882,16 +4032,16 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="C162" s="0" t="n">
-        <x:v>7950</x:v>
+        <x:v>9540</x:v>
       </x:c>
       <x:c r="D162" s="0" t="n">
         <x:v>1590</x:v>
       </x:c>
       <x:c r="E162" s="0" t="n">
-        <x:v>1135.705</x:v>
+        <x:v>1251.264</x:v>
       </x:c>
       <x:c r="F162" s="0" t="n">
-        <x:v>5224.295</x:v>
+        <x:v>6698.736</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:6">
@@ -3899,16 +4049,16 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="C163" s="0" t="n">
-        <x:v>8000</x:v>
+        <x:v>9600</x:v>
       </x:c>
       <x:c r="D163" s="0" t="n">
         <x:v>1600</x:v>
       </x:c>
       <x:c r="E163" s="0" t="n">
-        <x:v>1027.309</x:v>
+        <x:v>1202.582</x:v>
       </x:c>
       <x:c r="F163" s="0" t="n">
-        <x:v>5372.691</x:v>
+        <x:v>6797.418</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:6">
@@ -3916,16 +4066,16 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="C164" s="0" t="n">
-        <x:v>8050</x:v>
+        <x:v>9660</x:v>
       </x:c>
       <x:c r="D164" s="0" t="n">
         <x:v>1610</x:v>
       </x:c>
       <x:c r="E164" s="0" t="n">
-        <x:v>1600.772</x:v>
+        <x:v>1843.835</x:v>
       </x:c>
       <x:c r="F164" s="0" t="n">
-        <x:v>4839.228</x:v>
+        <x:v>6206.165</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:6">
@@ -3933,16 +4083,16 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="C165" s="0" t="n">
-        <x:v>8100</x:v>
+        <x:v>9720</x:v>
       </x:c>
       <x:c r="D165" s="0" t="n">
         <x:v>1620</x:v>
       </x:c>
       <x:c r="E165" s="0" t="n">
-        <x:v>940.5575</x:v>
+        <x:v>1313.054</x:v>
       </x:c>
       <x:c r="F165" s="0" t="n">
-        <x:v>5539.4425</x:v>
+        <x:v>6786.946</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:6">
@@ -3950,16 +4100,16 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="C166" s="0" t="n">
-        <x:v>8150</x:v>
+        <x:v>9780</x:v>
       </x:c>
       <x:c r="D166" s="0" t="n">
         <x:v>1630</x:v>
       </x:c>
       <x:c r="E166" s="0" t="n">
-        <x:v>1468.418</x:v>
+        <x:v>1512.068</x:v>
       </x:c>
       <x:c r="F166" s="0" t="n">
-        <x:v>5051.582</x:v>
+        <x:v>6637.932</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:6">
@@ -3967,16 +4117,16 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="C167" s="0" t="n">
-        <x:v>8200</x:v>
+        <x:v>9840</x:v>
       </x:c>
       <x:c r="D167" s="0" t="n">
         <x:v>1640</x:v>
       </x:c>
       <x:c r="E167" s="0" t="n">
-        <x:v>604.5512</x:v>
+        <x:v>1047.711</x:v>
       </x:c>
       <x:c r="F167" s="0" t="n">
-        <x:v>5955.4488</x:v>
+        <x:v>7152.289</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:6">
@@ -3984,16 +4134,16 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="C168" s="0" t="n">
-        <x:v>8250</x:v>
+        <x:v>9900</x:v>
       </x:c>
       <x:c r="D168" s="0" t="n">
         <x:v>1650</x:v>
       </x:c>
       <x:c r="E168" s="0" t="n">
-        <x:v>1159.976</x:v>
+        <x:v>1419.502</x:v>
       </x:c>
       <x:c r="F168" s="0" t="n">
-        <x:v>5440.024</x:v>
+        <x:v>6830.498</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:6">
@@ -4001,16 +4151,16 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="C169" s="0" t="n">
-        <x:v>8300</x:v>
+        <x:v>9960</x:v>
       </x:c>
       <x:c r="D169" s="0" t="n">
         <x:v>1660</x:v>
       </x:c>
       <x:c r="E169" s="0" t="n">
-        <x:v>977.9475</x:v>
+        <x:v>1237.682</x:v>
       </x:c>
       <x:c r="F169" s="0" t="n">
-        <x:v>5662.0525</x:v>
+        <x:v>7062.318</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:6">
@@ -4018,16 +4168,16 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="C170" s="0" t="n">
-        <x:v>8350</x:v>
+        <x:v>10020</x:v>
       </x:c>
       <x:c r="D170" s="0" t="n">
         <x:v>1670</x:v>
       </x:c>
       <x:c r="E170" s="0" t="n">
-        <x:v>1358.871</x:v>
+        <x:v>1482.001</x:v>
       </x:c>
       <x:c r="F170" s="0" t="n">
-        <x:v>5321.129</x:v>
+        <x:v>6867.999</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:6">
@@ -4035,16 +4185,16 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="C171" s="0" t="n">
-        <x:v>8400</x:v>
+        <x:v>10080</x:v>
       </x:c>
       <x:c r="D171" s="0" t="n">
         <x:v>1680</x:v>
       </x:c>
       <x:c r="E171" s="0" t="n">
-        <x:v>1157.122</x:v>
+        <x:v>1486.628</x:v>
       </x:c>
       <x:c r="F171" s="0" t="n">
-        <x:v>5562.878</x:v>
+        <x:v>6913.372</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:6">
@@ -4052,16 +4202,16 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="C172" s="0" t="n">
-        <x:v>8450</x:v>
+        <x:v>10140</x:v>
       </x:c>
       <x:c r="D172" s="0" t="n">
         <x:v>1690</x:v>
       </x:c>
       <x:c r="E172" s="0" t="n">
-        <x:v>898.8524</x:v>
+        <x:v>1042.524</x:v>
       </x:c>
       <x:c r="F172" s="0" t="n">
-        <x:v>5861.1476</x:v>
+        <x:v>7407.476</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:6">
@@ -4069,16 +4219,16 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="C173" s="0" t="n">
-        <x:v>8500</x:v>
+        <x:v>10200</x:v>
       </x:c>
       <x:c r="D173" s="0" t="n">
         <x:v>1700</x:v>
       </x:c>
       <x:c r="E173" s="0" t="n">
-        <x:v>1187.958</x:v>
+        <x:v>1227.64</x:v>
       </x:c>
       <x:c r="F173" s="0" t="n">
-        <x:v>5612.042</x:v>
+        <x:v>7272.36</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:6">
@@ -4086,16 +4236,16 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="C174" s="0" t="n">
-        <x:v>8550</x:v>
+        <x:v>10260</x:v>
       </x:c>
       <x:c r="D174" s="0" t="n">
         <x:v>1710</x:v>
       </x:c>
       <x:c r="E174" s="0" t="n">
-        <x:v>1212.174</x:v>
+        <x:v>1594.549</x:v>
       </x:c>
       <x:c r="F174" s="0" t="n">
-        <x:v>5627.826</x:v>
+        <x:v>6955.451</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:6">
@@ -4103,16 +4253,16 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="C175" s="0" t="n">
-        <x:v>8600</x:v>
+        <x:v>10320</x:v>
       </x:c>
       <x:c r="D175" s="0" t="n">
         <x:v>1720</x:v>
       </x:c>
       <x:c r="E175" s="0" t="n">
-        <x:v>1379.136</x:v>
+        <x:v>1651.781</x:v>
       </x:c>
       <x:c r="F175" s="0" t="n">
-        <x:v>5500.864</x:v>
+        <x:v>6948.219</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:6">
@@ -4120,16 +4270,16 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="C176" s="0" t="n">
-        <x:v>8650</x:v>
+        <x:v>10380</x:v>
       </x:c>
       <x:c r="D176" s="0" t="n">
         <x:v>1730</x:v>
       </x:c>
       <x:c r="E176" s="0" t="n">
-        <x:v>1266.172</x:v>
+        <x:v>1389.457</x:v>
       </x:c>
       <x:c r="F176" s="0" t="n">
-        <x:v>5653.828</x:v>
+        <x:v>7260.543</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:6">
@@ -4137,16 +4287,16 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="C177" s="0" t="n">
-        <x:v>8700</x:v>
+        <x:v>10440</x:v>
       </x:c>
       <x:c r="D177" s="0" t="n">
         <x:v>1740</x:v>
       </x:c>
       <x:c r="E177" s="0" t="n">
-        <x:v>994.5594</x:v>
+        <x:v>1015.782</x:v>
       </x:c>
       <x:c r="F177" s="0" t="n">
-        <x:v>5965.4406</x:v>
+        <x:v>7684.218</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:6">
@@ -4154,16 +4304,16 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="C178" s="0" t="n">
-        <x:v>8750</x:v>
+        <x:v>10500</x:v>
       </x:c>
       <x:c r="D178" s="0" t="n">
         <x:v>1750</x:v>
       </x:c>
       <x:c r="E178" s="0" t="n">
-        <x:v>1710.218</x:v>
+        <x:v>1950.679</x:v>
       </x:c>
       <x:c r="F178" s="0" t="n">
-        <x:v>5289.782</x:v>
+        <x:v>6799.321</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:6">
@@ -4171,16 +4321,16 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="C179" s="0" t="n">
-        <x:v>8800</x:v>
+        <x:v>10560</x:v>
       </x:c>
       <x:c r="D179" s="0" t="n">
         <x:v>1760</x:v>
       </x:c>
       <x:c r="E179" s="0" t="n">
-        <x:v>1058.629</x:v>
+        <x:v>1475.506</x:v>
       </x:c>
       <x:c r="F179" s="0" t="n">
-        <x:v>5981.371</x:v>
+        <x:v>7324.494</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:6">
@@ -4188,16 +4338,16 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="C180" s="0" t="n">
-        <x:v>8850</x:v>
+        <x:v>10620</x:v>
       </x:c>
       <x:c r="D180" s="0" t="n">
         <x:v>1770</x:v>
       </x:c>
       <x:c r="E180" s="0" t="n">
-        <x:v>852.3546</x:v>
+        <x:v>1083.183</x:v>
       </x:c>
       <x:c r="F180" s="0" t="n">
-        <x:v>6227.6454</x:v>
+        <x:v>7766.817</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:6">
@@ -4205,16 +4355,16 @@
         <x:v>183</x:v>
       </x:c>
       <x:c r="C181" s="0" t="n">
-        <x:v>8900</x:v>
+        <x:v>10680</x:v>
       </x:c>
       <x:c r="D181" s="0" t="n">
         <x:v>1780</x:v>
       </x:c>
       <x:c r="E181" s="0" t="n">
-        <x:v>1111.429</x:v>
+        <x:v>1480.542</x:v>
       </x:c>
       <x:c r="F181" s="0" t="n">
-        <x:v>6008.571</x:v>
+        <x:v>7419.458</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:6">
@@ -4222,16 +4372,16 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="C182" s="0" t="n">
-        <x:v>8950</x:v>
+        <x:v>10740</x:v>
       </x:c>
       <x:c r="D182" s="0" t="n">
         <x:v>1790</x:v>
       </x:c>
       <x:c r="E182" s="0" t="n">
-        <x:v>1237.032</x:v>
+        <x:v>1741.391</x:v>
       </x:c>
       <x:c r="F182" s="0" t="n">
-        <x:v>5922.968</x:v>
+        <x:v>7208.609</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:6">
@@ -4239,16 +4389,16 @@
         <x:v>185</x:v>
       </x:c>
       <x:c r="C183" s="0" t="n">
-        <x:v>9000</x:v>
+        <x:v>10800</x:v>
       </x:c>
       <x:c r="D183" s="0" t="n">
         <x:v>1800</x:v>
       </x:c>
       <x:c r="E183" s="0" t="n">
-        <x:v>1210.59</x:v>
+        <x:v>1536.297</x:v>
       </x:c>
       <x:c r="F183" s="0" t="n">
-        <x:v>5989.41</x:v>
+        <x:v>7463.703</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:6">
@@ -4256,16 +4406,16 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="C184" s="0" t="n">
-        <x:v>9050</x:v>
+        <x:v>10860</x:v>
       </x:c>
       <x:c r="D184" s="0" t="n">
         <x:v>1810</x:v>
       </x:c>
       <x:c r="E184" s="0" t="n">
-        <x:v>1174.534</x:v>
+        <x:v>1296.239</x:v>
       </x:c>
       <x:c r="F184" s="0" t="n">
-        <x:v>6065.466</x:v>
+        <x:v>7753.761</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:6">
@@ -4273,16 +4423,16 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="C185" s="0" t="n">
-        <x:v>9100</x:v>
+        <x:v>10920</x:v>
       </x:c>
       <x:c r="D185" s="0" t="n">
         <x:v>1820</x:v>
       </x:c>
       <x:c r="E185" s="0" t="n">
-        <x:v>1719.67</x:v>
+        <x:v>2043.657</x:v>
       </x:c>
       <x:c r="F185" s="0" t="n">
-        <x:v>5560.33</x:v>
+        <x:v>7056.343</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:6">
@@ -4290,16 +4440,16 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="C186" s="0" t="n">
-        <x:v>9150</x:v>
+        <x:v>10980</x:v>
       </x:c>
       <x:c r="D186" s="0" t="n">
         <x:v>1830</x:v>
       </x:c>
       <x:c r="E186" s="0" t="n">
-        <x:v>1119.182</x:v>
+        <x:v>1213.57</x:v>
       </x:c>
       <x:c r="F186" s="0" t="n">
-        <x:v>6200.818</x:v>
+        <x:v>7936.43</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:6">
@@ -4307,16 +4457,16 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="C187" s="0" t="n">
-        <x:v>9200</x:v>
+        <x:v>11040</x:v>
       </x:c>
       <x:c r="D187" s="0" t="n">
         <x:v>1840</x:v>
       </x:c>
       <x:c r="E187" s="0" t="n">
-        <x:v>1517.677</x:v>
+        <x:v>1621.272</x:v>
       </x:c>
       <x:c r="F187" s="0" t="n">
-        <x:v>5842.323</x:v>
+        <x:v>7578.728</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:6">
@@ -4324,16 +4474,16 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="C188" s="0" t="n">
-        <x:v>9250</x:v>
+        <x:v>11100</x:v>
       </x:c>
       <x:c r="D188" s="0" t="n">
         <x:v>1850</x:v>
       </x:c>
       <x:c r="E188" s="0" t="n">
-        <x:v>1494.516</x:v>
+        <x:v>1623.557</x:v>
       </x:c>
       <x:c r="F188" s="0" t="n">
-        <x:v>5905.484</x:v>
+        <x:v>7626.443</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:6">
@@ -4341,16 +4491,16 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="C189" s="0" t="n">
-        <x:v>9300</x:v>
+        <x:v>11160</x:v>
       </x:c>
       <x:c r="D189" s="0" t="n">
         <x:v>1860</x:v>
       </x:c>
       <x:c r="E189" s="0" t="n">
-        <x:v>1396.989</x:v>
+        <x:v>1868.756</x:v>
       </x:c>
       <x:c r="F189" s="0" t="n">
-        <x:v>6043.011</x:v>
+        <x:v>7431.244</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:6">
@@ -4358,16 +4508,16 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="C190" s="0" t="n">
-        <x:v>9350</x:v>
+        <x:v>11220</x:v>
       </x:c>
       <x:c r="D190" s="0" t="n">
         <x:v>1870</x:v>
       </x:c>
       <x:c r="E190" s="0" t="n">
-        <x:v>1438.57</x:v>
+        <x:v>1969.436</x:v>
       </x:c>
       <x:c r="F190" s="0" t="n">
-        <x:v>6041.43</x:v>
+        <x:v>7380.564</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:6">
@@ -4375,16 +4525,16 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="C191" s="0" t="n">
-        <x:v>9400</x:v>
+        <x:v>11280</x:v>
       </x:c>
       <x:c r="D191" s="0" t="n">
         <x:v>1880</x:v>
       </x:c>
       <x:c r="E191" s="0" t="n">
-        <x:v>1839.839</x:v>
+        <x:v>2339.558</x:v>
       </x:c>
       <x:c r="F191" s="0" t="n">
-        <x:v>5680.161</x:v>
+        <x:v>7060.442</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:6">
@@ -4392,16 +4542,16 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="C192" s="0" t="n">
-        <x:v>9450</x:v>
+        <x:v>11340</x:v>
       </x:c>
       <x:c r="D192" s="0" t="n">
         <x:v>1890</x:v>
       </x:c>
       <x:c r="E192" s="0" t="n">
-        <x:v>1647.09</x:v>
+        <x:v>1709.858</x:v>
       </x:c>
       <x:c r="F192" s="0" t="n">
-        <x:v>5912.91</x:v>
+        <x:v>7740.142</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:6">
@@ -4409,16 +4559,16 @@
         <x:v>195</x:v>
       </x:c>
       <x:c r="C193" s="0" t="n">
-        <x:v>9500</x:v>
+        <x:v>11400</x:v>
       </x:c>
       <x:c r="D193" s="0" t="n">
         <x:v>1900</x:v>
       </x:c>
       <x:c r="E193" s="0" t="n">
-        <x:v>1194.448</x:v>
+        <x:v>1456.945</x:v>
       </x:c>
       <x:c r="F193" s="0" t="n">
-        <x:v>6405.552</x:v>
+        <x:v>8043.055</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:6">
@@ -4426,16 +4576,16 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="C194" s="0" t="n">
-        <x:v>9550</x:v>
+        <x:v>11460</x:v>
       </x:c>
       <x:c r="D194" s="0" t="n">
         <x:v>1910</x:v>
       </x:c>
       <x:c r="E194" s="0" t="n">
-        <x:v>1207.577</x:v>
+        <x:v>1428.737</x:v>
       </x:c>
       <x:c r="F194" s="0" t="n">
-        <x:v>6432.423</x:v>
+        <x:v>8121.263</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:6">
@@ -4443,16 +4593,16 @@
         <x:v>197</x:v>
       </x:c>
       <x:c r="C195" s="0" t="n">
-        <x:v>9600</x:v>
+        <x:v>11520</x:v>
       </x:c>
       <x:c r="D195" s="0" t="n">
         <x:v>1920</x:v>
       </x:c>
       <x:c r="E195" s="0" t="n">
-        <x:v>1970.44</x:v>
+        <x:v>2244.072</x:v>
       </x:c>
       <x:c r="F195" s="0" t="n">
-        <x:v>5709.56</x:v>
+        <x:v>7355.928</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:6">
@@ -4460,16 +4610,16 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="C196" s="0" t="n">
-        <x:v>9650</x:v>
+        <x:v>11580</x:v>
       </x:c>
       <x:c r="D196" s="0" t="n">
         <x:v>1930</x:v>
       </x:c>
       <x:c r="E196" s="0" t="n">
-        <x:v>1124.596</x:v>
+        <x:v>1531.288</x:v>
       </x:c>
       <x:c r="F196" s="0" t="n">
-        <x:v>6595.404</x:v>
+        <x:v>8118.712</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:6">
@@ -4477,16 +4627,16 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="C197" s="0" t="n">
-        <x:v>9700</x:v>
+        <x:v>11640</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
         <x:v>1940</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
-        <x:v>1858.354</x:v>
+        <x:v>2406.97</x:v>
       </x:c>
       <x:c r="F197" s="0" t="n">
-        <x:v>5901.646</x:v>
+        <x:v>7293.03</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:6">
@@ -4494,16 +4644,16 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
-        <x:v>9750</x:v>
+        <x:v>11700</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
         <x:v>1950</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
-        <x:v>1723.815</x:v>
+        <x:v>2021.121</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>6076.185</x:v>
+        <x:v>7728.879</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:6">
@@ -4511,16 +4661,16 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="C199" s="0" t="n">
-        <x:v>9800</x:v>
+        <x:v>11760</x:v>
       </x:c>
       <x:c r="D199" s="0" t="n">
         <x:v>1960</x:v>
       </x:c>
       <x:c r="E199" s="0" t="n">
-        <x:v>1773.14</x:v>
+        <x:v>2300.961</x:v>
       </x:c>
       <x:c r="F199" s="0" t="n">
-        <x:v>6066.86</x:v>
+        <x:v>7499.039</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:6">
@@ -4528,16 +4678,16 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="C200" s="0" t="n">
-        <x:v>9850</x:v>
+        <x:v>11820</x:v>
       </x:c>
       <x:c r="D200" s="0" t="n">
         <x:v>1970</x:v>
       </x:c>
       <x:c r="E200" s="0" t="n">
-        <x:v>1264.604</x:v>
+        <x:v>1348.483</x:v>
       </x:c>
       <x:c r="F200" s="0" t="n">
-        <x:v>6615.396</x:v>
+        <x:v>8501.517</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:6">
@@ -4545,16 +4695,16 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="C201" s="0" t="n">
-        <x:v>9900</x:v>
+        <x:v>11880</x:v>
       </x:c>
       <x:c r="D201" s="0" t="n">
         <x:v>1980</x:v>
       </x:c>
       <x:c r="E201" s="0" t="n">
-        <x:v>1135.406</x:v>
+        <x:v>1248.325</x:v>
       </x:c>
       <x:c r="F201" s="0" t="n">
-        <x:v>6784.594</x:v>
+        <x:v>8651.675</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:6">
@@ -4562,16 +4712,16 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="C202" s="0" t="n">
-        <x:v>9950</x:v>
+        <x:v>11940</x:v>
       </x:c>
       <x:c r="D202" s="0" t="n">
         <x:v>1990</x:v>
       </x:c>
       <x:c r="E202" s="0" t="n">
-        <x:v>1758.325</x:v>
+        <x:v>2084.662</x:v>
       </x:c>
       <x:c r="F202" s="0" t="n">
-        <x:v>6201.675</x:v>
+        <x:v>7865.338</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:6">
@@ -4579,16 +4729,16 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="C203" s="0" t="n">
-        <x:v>10000</x:v>
+        <x:v>12000</x:v>
       </x:c>
       <x:c r="D203" s="0" t="n">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="E203" s="0" t="n">
-        <x:v>1858.589</x:v>
+        <x:v>2175.076</x:v>
       </x:c>
       <x:c r="F203" s="0" t="n">
-        <x:v>6141.411</x:v>
+        <x:v>7824.924</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:6">
@@ -4596,16 +4746,16 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="C204" s="0" t="n">
-        <x:v>10050</x:v>
+        <x:v>12060</x:v>
       </x:c>
       <x:c r="D204" s="0" t="n">
         <x:v>2010</x:v>
       </x:c>
       <x:c r="E204" s="0" t="n">
-        <x:v>1374.264</x:v>
+        <x:v>1451.441</x:v>
       </x:c>
       <x:c r="F204" s="0" t="n">
-        <x:v>6665.736</x:v>
+        <x:v>8598.559</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:6">
@@ -4613,16 +4763,16 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="C205" s="0" t="n">
-        <x:v>10100</x:v>
+        <x:v>12120</x:v>
       </x:c>
       <x:c r="D205" s="0" t="n">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="E205" s="0" t="n">
-        <x:v>1134.315</x:v>
+        <x:v>1283.589</x:v>
       </x:c>
       <x:c r="F205" s="0" t="n">
-        <x:v>6945.685</x:v>
+        <x:v>8816.411</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:6">
@@ -4630,16 +4780,16 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="C206" s="0" t="n">
-        <x:v>10150</x:v>
+        <x:v>12180</x:v>
       </x:c>
       <x:c r="D206" s="0" t="n">
         <x:v>2030</x:v>
       </x:c>
       <x:c r="E206" s="0" t="n">
-        <x:v>1688.997</x:v>
+        <x:v>1851.008</x:v>
       </x:c>
       <x:c r="F206" s="0" t="n">
-        <x:v>6431.003</x:v>
+        <x:v>8298.992</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:6">
@@ -4647,16 +4797,16 @@
         <x:v>209</x:v>
       </x:c>
       <x:c r="C207" s="0" t="n">
-        <x:v>10200</x:v>
+        <x:v>12240</x:v>
       </x:c>
       <x:c r="D207" s="0" t="n">
         <x:v>2040</x:v>
       </x:c>
       <x:c r="E207" s="0" t="n">
-        <x:v>1808.676</x:v>
+        <x:v>2319.615</x:v>
       </x:c>
       <x:c r="F207" s="0" t="n">
-        <x:v>6351.324</x:v>
+        <x:v>7880.385</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:6">
@@ -4664,16 +4814,16 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="C208" s="0" t="n">
-        <x:v>10250</x:v>
+        <x:v>12300</x:v>
       </x:c>
       <x:c r="D208" s="0" t="n">
         <x:v>2050</x:v>
       </x:c>
       <x:c r="E208" s="0" t="n">
-        <x:v>1468.996</x:v>
+        <x:v>1668.713</x:v>
       </x:c>
       <x:c r="F208" s="0" t="n">
-        <x:v>6731.004</x:v>
+        <x:v>8581.287</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:6">
@@ -4681,16 +4831,16 @@
         <x:v>211</x:v>
       </x:c>
       <x:c r="C209" s="0" t="n">
-        <x:v>10300</x:v>
+        <x:v>12360</x:v>
       </x:c>
       <x:c r="D209" s="0" t="n">
         <x:v>2060</x:v>
       </x:c>
       <x:c r="E209" s="0" t="n">
-        <x:v>1446.492</x:v>
+        <x:v>1814.536</x:v>
       </x:c>
       <x:c r="F209" s="0" t="n">
-        <x:v>6793.508</x:v>
+        <x:v>8485.464</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:6">
@@ -4698,16 +4848,16 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="C210" s="0" t="n">
-        <x:v>10350</x:v>
+        <x:v>12420</x:v>
       </x:c>
       <x:c r="D210" s="0" t="n">
         <x:v>2070</x:v>
       </x:c>
       <x:c r="E210" s="0" t="n">
-        <x:v>642.5345</x:v>
+        <x:v>1109.367</x:v>
       </x:c>
       <x:c r="F210" s="0" t="n">
-        <x:v>7637.4655</x:v>
+        <x:v>9240.633</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:6">
@@ -4715,16 +4865,16 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="C211" s="0" t="n">
-        <x:v>10400</x:v>
+        <x:v>12480</x:v>
       </x:c>
       <x:c r="D211" s="0" t="n">
         <x:v>2080</x:v>
       </x:c>
       <x:c r="E211" s="0" t="n">
-        <x:v>1319.654</x:v>
+        <x:v>1856.432</x:v>
       </x:c>
       <x:c r="F211" s="0" t="n">
-        <x:v>7000.346</x:v>
+        <x:v>8543.568</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:6">
@@ -4732,16 +4882,16 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="C212" s="0" t="n">
-        <x:v>10450</x:v>
+        <x:v>12540</x:v>
       </x:c>
       <x:c r="D212" s="0" t="n">
         <x:v>2090</x:v>
       </x:c>
       <x:c r="E212" s="0" t="n">
-        <x:v>1492.846</x:v>
+        <x:v>1644.744</x:v>
       </x:c>
       <x:c r="F212" s="0" t="n">
-        <x:v>6867.154</x:v>
+        <x:v>8805.256</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:6">
@@ -4749,16 +4899,16 @@
         <x:v>215</x:v>
       </x:c>
       <x:c r="C213" s="0" t="n">
-        <x:v>10500</x:v>
+        <x:v>12600</x:v>
       </x:c>
       <x:c r="D213" s="0" t="n">
         <x:v>2100</x:v>
       </x:c>
       <x:c r="E213" s="0" t="n">
-        <x:v>1348.344</x:v>
+        <x:v>1578.389</x:v>
       </x:c>
       <x:c r="F213" s="0" t="n">
-        <x:v>7051.656</x:v>
+        <x:v>8921.611</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:6">
@@ -4766,16 +4916,16 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="C214" s="0" t="n">
-        <x:v>10550</x:v>
+        <x:v>12660</x:v>
       </x:c>
       <x:c r="D214" s="0" t="n">
         <x:v>2110</x:v>
       </x:c>
       <x:c r="E214" s="0" t="n">
-        <x:v>2097.906</x:v>
+        <x:v>2416.455</x:v>
       </x:c>
       <x:c r="F214" s="0" t="n">
-        <x:v>6342.094</x:v>
+        <x:v>8133.545</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:6">
@@ -4783,16 +4933,16 @@
         <x:v>217</x:v>
       </x:c>
       <x:c r="C215" s="0" t="n">
-        <x:v>10600</x:v>
+        <x:v>12720</x:v>
       </x:c>
       <x:c r="D215" s="0" t="n">
         <x:v>2120</x:v>
       </x:c>
       <x:c r="E215" s="0" t="n">
-        <x:v>1230.853</x:v>
+        <x:v>1718.317</x:v>
       </x:c>
       <x:c r="F215" s="0" t="n">
-        <x:v>7249.147</x:v>
+        <x:v>8881.683</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:6">
@@ -4800,16 +4950,16 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="C216" s="0" t="n">
-        <x:v>10650</x:v>
+        <x:v>12780</x:v>
       </x:c>
       <x:c r="D216" s="0" t="n">
         <x:v>2130</x:v>
       </x:c>
       <x:c r="E216" s="0" t="n">
-        <x:v>1918.853</x:v>
+        <x:v>1975.892</x:v>
       </x:c>
       <x:c r="F216" s="0" t="n">
-        <x:v>6601.147</x:v>
+        <x:v>8674.108</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:6">
@@ -4817,16 +4967,16 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="C217" s="0" t="n">
-        <x:v>10700</x:v>
+        <x:v>12840</x:v>
       </x:c>
       <x:c r="D217" s="0" t="n">
         <x:v>2140</x:v>
       </x:c>
       <x:c r="E217" s="0" t="n">
-        <x:v>788.8655</x:v>
+        <x:v>1367.135</x:v>
       </x:c>
       <x:c r="F217" s="0" t="n">
-        <x:v>7771.1345</x:v>
+        <x:v>9332.865</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:6">
@@ -4834,16 +4984,16 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="C218" s="0" t="n">
-        <x:v>10750</x:v>
+        <x:v>12900</x:v>
       </x:c>
       <x:c r="D218" s="0" t="n">
         <x:v>2150</x:v>
       </x:c>
       <x:c r="E218" s="0" t="n">
-        <x:v>1511.484</x:v>
+        <x:v>1849.654</x:v>
       </x:c>
       <x:c r="F218" s="0" t="n">
-        <x:v>7088.516</x:v>
+        <x:v>8900.346</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:6">
@@ -4851,16 +5001,16 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="C219" s="0" t="n">
-        <x:v>10800</x:v>
+        <x:v>12960</x:v>
       </x:c>
       <x:c r="D219" s="0" t="n">
         <x:v>2160</x:v>
       </x:c>
       <x:c r="E219" s="0" t="n">
-        <x:v>1272.51</x:v>
+        <x:v>1610.478</x:v>
       </x:c>
       <x:c r="F219" s="0" t="n">
-        <x:v>7367.49</x:v>
+        <x:v>9189.522</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:6">
@@ -4868,16 +5018,16 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="C220" s="0" t="n">
-        <x:v>10850</x:v>
+        <x:v>13020</x:v>
       </x:c>
       <x:c r="D220" s="0" t="n">
         <x:v>2170</x:v>
       </x:c>
       <x:c r="E220" s="0" t="n">
-        <x:v>1765.719</x:v>
+        <x:v>1925.714</x:v>
       </x:c>
       <x:c r="F220" s="0" t="n">
-        <x:v>6914.281</x:v>
+        <x:v>8924.286</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:6">
@@ -4885,16 +5035,16 @@
         <x:v>223</x:v>
       </x:c>
       <x:c r="C221" s="0" t="n">
-        <x:v>10900</x:v>
+        <x:v>13080</x:v>
       </x:c>
       <x:c r="D221" s="0" t="n">
         <x:v>2180</x:v>
       </x:c>
       <x:c r="E221" s="0" t="n">
-        <x:v>1501.503</x:v>
+        <x:v>1929.077</x:v>
       </x:c>
       <x:c r="F221" s="0" t="n">
-        <x:v>7218.497</x:v>
+        <x:v>8970.923</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:6">
@@ -4902,16 +5052,16 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="C222" s="0" t="n">
-        <x:v>10950</x:v>
+        <x:v>13140</x:v>
       </x:c>
       <x:c r="D222" s="0" t="n">
         <x:v>2190</x:v>
       </x:c>
       <x:c r="E222" s="0" t="n">
-        <x:v>1164.785</x:v>
+        <x:v>1350.963</x:v>
       </x:c>
       <x:c r="F222" s="0" t="n">
-        <x:v>7595.215</x:v>
+        <x:v>9599.037</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:6">
@@ -4919,16 +5069,16 @@
         <x:v>225</x:v>
       </x:c>
       <x:c r="C223" s="0" t="n">
-        <x:v>11000</x:v>
+        <x:v>13200</x:v>
       </x:c>
       <x:c r="D223" s="0" t="n">
         <x:v>2200</x:v>
       </x:c>
       <x:c r="E223" s="0" t="n">
-        <x:v>1537.357</x:v>
+        <x:v>1588.71</x:v>
       </x:c>
       <x:c r="F223" s="0" t="n">
-        <x:v>7262.643</x:v>
+        <x:v>9411.29</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:6">
@@ -4936,16 +5086,16 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="C224" s="0" t="n">
-        <x:v>11050</x:v>
+        <x:v>13260</x:v>
       </x:c>
       <x:c r="D224" s="0" t="n">
         <x:v>2210</x:v>
       </x:c>
       <x:c r="E224" s="0" t="n">
-        <x:v>1566.61</x:v>
+        <x:v>2060.791</x:v>
       </x:c>
       <x:c r="F224" s="0" t="n">
-        <x:v>7273.39</x:v>
+        <x:v>8989.209</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:6">
@@ -4953,16 +5103,16 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="C225" s="0" t="n">
-        <x:v>11100</x:v>
+        <x:v>13320</x:v>
       </x:c>
       <x:c r="D225" s="0" t="n">
         <x:v>2220</x:v>
       </x:c>
       <x:c r="E225" s="0" t="n">
-        <x:v>1780.048</x:v>
+        <x:v>2131.95</x:v>
       </x:c>
       <x:c r="F225" s="0" t="n">
-        <x:v>7099.952</x:v>
+        <x:v>8968.05</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:6">
@@ -4970,16 +5120,16 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="C226" s="0" t="n">
-        <x:v>11150</x:v>
+        <x:v>13380</x:v>
       </x:c>
       <x:c r="D226" s="0" t="n">
         <x:v>2230</x:v>
       </x:c>
       <x:c r="E226" s="0" t="n">
-        <x:v>1632.118</x:v>
+        <x:v>1791.034</x:v>
       </x:c>
       <x:c r="F226" s="0" t="n">
-        <x:v>7287.882</x:v>
+        <x:v>9358.966</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:6">
@@ -4987,16 +5137,16 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="C227" s="0" t="n">
-        <x:v>11200</x:v>
+        <x:v>13440</x:v>
       </x:c>
       <x:c r="D227" s="0" t="n">
         <x:v>2240</x:v>
       </x:c>
       <x:c r="E227" s="0" t="n">
-        <x:v>1280.352</x:v>
+        <x:v>1307.674</x:v>
       </x:c>
       <x:c r="F227" s="0" t="n">
-        <x:v>7679.648</x:v>
+        <x:v>9892.326</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:6">
@@ -5004,16 +5154,16 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="C228" s="0" t="n">
-        <x:v>11250</x:v>
+        <x:v>13500</x:v>
       </x:c>
       <x:c r="D228" s="0" t="n">
         <x:v>2250</x:v>
       </x:c>
       <x:c r="E228" s="0" t="n">
-        <x:v>2198.851</x:v>
+        <x:v>2508.016</x:v>
       </x:c>
       <x:c r="F228" s="0" t="n">
-        <x:v>6801.149</x:v>
+        <x:v>8741.984</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:6">
@@ -5021,16 +5171,16 @@
         <x:v>231</x:v>
       </x:c>
       <x:c r="C229" s="0" t="n">
-        <x:v>11300</x:v>
+        <x:v>13560</x:v>
       </x:c>
       <x:c r="D229" s="0" t="n">
         <x:v>2260</x:v>
       </x:c>
       <x:c r="E229" s="0" t="n">
-        <x:v>1359.376</x:v>
+        <x:v>1894.684</x:v>
       </x:c>
       <x:c r="F229" s="0" t="n">
-        <x:v>7680.624</x:v>
+        <x:v>9405.316</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:6">
@@ -5038,16 +5188,16 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="C230" s="0" t="n">
-        <x:v>11350</x:v>
+        <x:v>13620</x:v>
       </x:c>
       <x:c r="D230" s="0" t="n">
         <x:v>2270</x:v>
       </x:c>
       <x:c r="E230" s="0" t="n">
-        <x:v>1093.133</x:v>
+        <x:v>1389.166</x:v>
       </x:c>
       <x:c r="F230" s="0" t="n">
-        <x:v>7986.867</x:v>
+        <x:v>9960.834</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:6">
@@ -5055,16 +5205,16 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="C231" s="0" t="n">
-        <x:v>11400</x:v>
+        <x:v>13680</x:v>
       </x:c>
       <x:c r="D231" s="0" t="n">
         <x:v>2280</x:v>
       </x:c>
       <x:c r="E231" s="0" t="n">
-        <x:v>1423.629</x:v>
+        <x:v>1896.424</x:v>
       </x:c>
       <x:c r="F231" s="0" t="n">
-        <x:v>7696.371</x:v>
+        <x:v>9503.576</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:6">
@@ -5072,16 +5222,16 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="C232" s="0" t="n">
-        <x:v>11450</x:v>
+        <x:v>13740</x:v>
       </x:c>
       <x:c r="D232" s="0" t="n">
         <x:v>2290</x:v>
       </x:c>
       <x:c r="E232" s="0" t="n">
-        <x:v>1582.572</x:v>
+        <x:v>2227.813</x:v>
       </x:c>
       <x:c r="F232" s="0" t="n">
-        <x:v>7577.428</x:v>
+        <x:v>9222.187</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:6">
@@ -5089,16 +5239,16 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="C233" s="0" t="n">
-        <x:v>11500</x:v>
+        <x:v>13800</x:v>
       </x:c>
       <x:c r="D233" s="0" t="n">
         <x:v>2300</x:v>
       </x:c>
       <x:c r="E233" s="0" t="n">
-        <x:v>1546.865</x:v>
+        <x:v>1963.046</x:v>
       </x:c>
       <x:c r="F233" s="0" t="n">
-        <x:v>7653.135</x:v>
+        <x:v>9536.954</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:6">
@@ -5106,16 +5256,16 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="C234" s="0" t="n">
-        <x:v>11550</x:v>
+        <x:v>13860</x:v>
       </x:c>
       <x:c r="D234" s="0" t="n">
         <x:v>2310</x:v>
       </x:c>
       <x:c r="E234" s="0" t="n">
-        <x:v>1498.991</x:v>
+        <x:v>1654.316</x:v>
       </x:c>
       <x:c r="F234" s="0" t="n">
-        <x:v>7741.009</x:v>
+        <x:v>9895.684</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:6">
@@ -5123,16 +5273,16 @@
         <x:v>237</x:v>
       </x:c>
       <x:c r="C235" s="0" t="n">
-        <x:v>11600</x:v>
+        <x:v>13920</x:v>
       </x:c>
       <x:c r="D235" s="0" t="n">
         <x:v>2320</x:v>
       </x:c>
       <x:c r="E235" s="0" t="n">
-        <x:v>2192.106</x:v>
+        <x:v>2605.101</x:v>
       </x:c>
       <x:c r="F235" s="0" t="n">
-        <x:v>7087.894</x:v>
+        <x:v>8994.899</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:6">
@@ -5140,16 +5290,16 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="C236" s="0" t="n">
-        <x:v>11650</x:v>
+        <x:v>13980</x:v>
       </x:c>
       <x:c r="D236" s="0" t="n">
         <x:v>2330</x:v>
       </x:c>
       <x:c r="E236" s="0" t="n">
-        <x:v>1424.969</x:v>
+        <x:v>1545.147</x:v>
       </x:c>
       <x:c r="F236" s="0" t="n">
-        <x:v>7895.031</x:v>
+        <x:v>10104.853</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:6">
@@ -5157,16 +5307,16 @@
         <x:v>239</x:v>
       </x:c>
       <x:c r="C237" s="0" t="n">
-        <x:v>11700</x:v>
+        <x:v>14040</x:v>
       </x:c>
       <x:c r="D237" s="0" t="n">
         <x:v>2340</x:v>
       </x:c>
       <x:c r="E237" s="0" t="n">
-        <x:v>1930.089</x:v>
+        <x:v>2061.835</x:v>
       </x:c>
       <x:c r="F237" s="0" t="n">
-        <x:v>7429.911</x:v>
+        <x:v>9638.165</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:6">
@@ -5174,16 +5324,16 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="C238" s="0" t="n">
-        <x:v>11750</x:v>
+        <x:v>14100</x:v>
       </x:c>
       <x:c r="D238" s="0" t="n">
         <x:v>2350</x:v>
       </x:c>
       <x:c r="E238" s="0" t="n">
-        <x:v>1898.44</x:v>
+        <x:v>2062.356</x:v>
       </x:c>
       <x:c r="F238" s="0" t="n">
-        <x:v>7501.56</x:v>
+        <x:v>9687.644</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:6">
@@ -5191,16 +5341,16 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="C239" s="0" t="n">
-        <x:v>11800</x:v>
+        <x:v>14160</x:v>
       </x:c>
       <x:c r="D239" s="0" t="n">
         <x:v>2360</x:v>
       </x:c>
       <x:c r="E239" s="0" t="n">
-        <x:v>1772.524</x:v>
+        <x:v>2371.11</x:v>
       </x:c>
       <x:c r="F239" s="0" t="n">
-        <x:v>7667.476</x:v>
+        <x:v>9428.89</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:6">
@@ -5208,16 +5358,16 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="C240" s="0" t="n">
-        <x:v>11850</x:v>
+        <x:v>14220</x:v>
       </x:c>
       <x:c r="D240" s="0" t="n">
         <x:v>2370</x:v>
       </x:c>
       <x:c r="E240" s="0" t="n">
-        <x:v>1823.215</x:v>
+        <x:v>2496.023</x:v>
       </x:c>
       <x:c r="F240" s="0" t="n">
-        <x:v>7656.785</x:v>
+        <x:v>9353.977</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:6">
@@ -5225,16 +5375,16 @@
         <x:v>243</x:v>
       </x:c>
       <x:c r="C241" s="0" t="n">
-        <x:v>11900</x:v>
+        <x:v>14280</x:v>
       </x:c>
       <x:c r="D241" s="0" t="n">
         <x:v>2380</x:v>
       </x:c>
       <x:c r="E241" s="0" t="n">
-        <x:v>2329.158</x:v>
+        <x:v>2961.781</x:v>
       </x:c>
       <x:c r="F241" s="0" t="n">
-        <x:v>7190.842</x:v>
+        <x:v>8938.219</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:6">
@@ -5242,16 +5392,16 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="C242" s="0" t="n">
-        <x:v>11950</x:v>
+        <x:v>14340</x:v>
       </x:c>
       <x:c r="D242" s="0" t="n">
         <x:v>2390</x:v>
       </x:c>
       <x:c r="E242" s="0" t="n">
-        <x:v>2082.829</x:v>
+        <x:v>2162.202</x:v>
       </x:c>
       <x:c r="F242" s="0" t="n">
-        <x:v>7477.171</x:v>
+        <x:v>9787.798</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:6">
@@ -5259,16 +5409,16 @@
         <x:v>245</x:v>
       </x:c>
       <x:c r="C243" s="0" t="n">
-        <x:v>12000</x:v>
+        <x:v>14400</x:v>
       </x:c>
       <x:c r="D243" s="0" t="n">
         <x:v>2400</x:v>
       </x:c>
       <x:c r="E243" s="0" t="n">
-        <x:v>1508.776</x:v>
+        <x:v>1840.352</x:v>
       </x:c>
       <x:c r="F243" s="0" t="n">
-        <x:v>8091.224</x:v>
+        <x:v>10159.648</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:6">
@@ -5276,16 +5426,16 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="C244" s="0" t="n">
-        <x:v>12050</x:v>
+        <x:v>14460</x:v>
       </x:c>
       <x:c r="D244" s="0" t="n">
         <x:v>2410</x:v>
       </x:c>
       <x:c r="E244" s="0" t="n">
-        <x:v>1523.696</x:v>
+        <x:v>1802.752</x:v>
       </x:c>
       <x:c r="F244" s="0" t="n">
-        <x:v>8116.304</x:v>
+        <x:v>10247.248</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:6">
@@ -5293,16 +5443,16 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C245" s="0" t="n">
-        <x:v>12100</x:v>
+        <x:v>14520</x:v>
       </x:c>
       <x:c r="D245" s="0" t="n">
         <x:v>2420</x:v>
       </x:c>
       <x:c r="E245" s="0" t="n">
-        <x:v>2483.575</x:v>
+        <x:v>2828.466</x:v>
       </x:c>
       <x:c r="F245" s="0" t="n">
-        <x:v>7196.425</x:v>
+        <x:v>9271.534</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:6">
@@ -5310,16 +5460,16 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="C246" s="0" t="n">
-        <x:v>12150</x:v>
+        <x:v>14580</x:v>
       </x:c>
       <x:c r="D246" s="0" t="n">
         <x:v>2430</x:v>
       </x:c>
       <x:c r="E246" s="0" t="n">
-        <x:v>1415.942</x:v>
+        <x:v>1927.995</x:v>
       </x:c>
       <x:c r="F246" s="0" t="n">
-        <x:v>8304.058</x:v>
+        <x:v>10222.005</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:6">
@@ -5327,16 +5477,16 @@
         <x:v>249</x:v>
       </x:c>
       <x:c r="C247" s="0" t="n">
-        <x:v>12200</x:v>
+        <x:v>14640</x:v>
       </x:c>
       <x:c r="D247" s="0" t="n">
         <x:v>2440</x:v>
       </x:c>
       <x:c r="E247" s="0" t="n">
-        <x:v>2337.311</x:v>
+        <x:v>3027.324</x:v>
       </x:c>
       <x:c r="F247" s="0" t="n">
-        <x:v>7422.689</x:v>
+        <x:v>9172.676</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:6">
@@ -5344,16 +5494,16 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="C248" s="0" t="n">
-        <x:v>12250</x:v>
+        <x:v>14700</x:v>
       </x:c>
       <x:c r="D248" s="0" t="n">
         <x:v>2450</x:v>
       </x:c>
       <x:c r="E248" s="0" t="n">
-        <x:v>2165.819</x:v>
+        <x:v>2539.358</x:v>
       </x:c>
       <x:c r="F248" s="0" t="n">
-        <x:v>7634.181</x:v>
+        <x:v>9710.642</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:6">
@@ -5361,16 +5511,16 @@
         <x:v>251</x:v>
       </x:c>
       <x:c r="C249" s="0" t="n">
-        <x:v>12300</x:v>
+        <x:v>14760</x:v>
       </x:c>
       <x:c r="D249" s="0" t="n">
         <x:v>2460</x:v>
       </x:c>
       <x:c r="E249" s="0" t="n">
-        <x:v>2225.471</x:v>
+        <x:v>2887.94</x:v>
       </x:c>
       <x:c r="F249" s="0" t="n">
-        <x:v>7614.529</x:v>
+        <x:v>9412.06</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:6">
@@ -5378,16 +5528,16 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="C250" s="0" t="n">
-        <x:v>12350</x:v>
+        <x:v>14820</x:v>
       </x:c>
       <x:c r="D250" s="0" t="n">
         <x:v>2470</x:v>
       </x:c>
       <x:c r="E250" s="0" t="n">
-        <x:v>1585.569</x:v>
+        <x:v>1690.737</x:v>
       </x:c>
       <x:c r="F250" s="0" t="n">
-        <x:v>8294.431</x:v>
+        <x:v>10659.263</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:6">
@@ -5395,16 +5545,16 @@
         <x:v>253</x:v>
       </x:c>
       <x:c r="C251" s="0" t="n">
-        <x:v>12400</x:v>
+        <x:v>14880</x:v>
       </x:c>
       <x:c r="D251" s="0" t="n">
         <x:v>2480</x:v>
       </x:c>
       <x:c r="E251" s="0" t="n">
-        <x:v>1422.125</x:v>
+        <x:v>1563.559</x:v>
       </x:c>
       <x:c r="F251" s="0" t="n">
-        <x:v>8497.875</x:v>
+        <x:v>10836.441</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:6">
@@ -5412,16 +5562,866 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="C252" s="0" t="n">
-        <x:v>12450</x:v>
+        <x:v>14940</x:v>
       </x:c>
       <x:c r="D252" s="0" t="n">
         <x:v>2490</x:v>
       </x:c>
       <x:c r="E252" s="0" t="n">
-        <x:v>2200.115</x:v>
+        <x:v>2608.447</x:v>
       </x:c>
       <x:c r="F252" s="0" t="n">
-        <x:v>7759.885</x:v>
+        <x:v>9841.553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253" spans="1:6">
+      <x:c r="B253" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C253" s="0" t="n">
+        <x:v>15000</x:v>
+      </x:c>
+      <x:c r="D253" s="0" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="n">
+        <x:v>2718.845</x:v>
+      </x:c>
+      <x:c r="F253" s="0" t="n">
+        <x:v>9781.155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254" spans="1:6">
+      <x:c r="B254" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="C254" s="0" t="n">
+        <x:v>15060</x:v>
+      </x:c>
+      <x:c r="D254" s="0" t="n">
+        <x:v>2510</x:v>
+      </x:c>
+      <x:c r="E254" s="0" t="n">
+        <x:v>1812.496</x:v>
+      </x:c>
+      <x:c r="F254" s="0" t="n">
+        <x:v>10737.504</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255" spans="1:6">
+      <x:c r="B255" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C255" s="0" t="n">
+        <x:v>15120</x:v>
+      </x:c>
+      <x:c r="D255" s="0" t="n">
+        <x:v>2520</x:v>
+      </x:c>
+      <x:c r="E255" s="0" t="n">
+        <x:v>1601.309</x:v>
+      </x:c>
+      <x:c r="F255" s="0" t="n">
+        <x:v>10998.691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256" spans="1:6">
+      <x:c r="B256" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="C256" s="0" t="n">
+        <x:v>15180</x:v>
+      </x:c>
+      <x:c r="D256" s="0" t="n">
+        <x:v>2530</x:v>
+      </x:c>
+      <x:c r="E256" s="0" t="n">
+        <x:v>2306.922</x:v>
+      </x:c>
+      <x:c r="F256" s="0" t="n">
+        <x:v>10343.078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257" spans="1:6">
+      <x:c r="B257" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="C257" s="0" t="n">
+        <x:v>15240</x:v>
+      </x:c>
+      <x:c r="D257" s="0" t="n">
+        <x:v>2540</x:v>
+      </x:c>
+      <x:c r="E257" s="0" t="n">
+        <x:v>2888.147</x:v>
+      </x:c>
+      <x:c r="F257" s="0" t="n">
+        <x:v>9811.853</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258" spans="1:6">
+      <x:c r="B258" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="C258" s="0" t="n">
+        <x:v>15300</x:v>
+      </x:c>
+      <x:c r="D258" s="0" t="n">
+        <x:v>2550</x:v>
+      </x:c>
+      <x:c r="E258" s="0" t="n">
+        <x:v>2075.716</x:v>
+      </x:c>
+      <x:c r="F258" s="0" t="n">
+        <x:v>10674.284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259" spans="1:6">
+      <x:c r="B259" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="C259" s="0" t="n">
+        <x:v>15360</x:v>
+      </x:c>
+      <x:c r="D259" s="0" t="n">
+        <x:v>2560</x:v>
+      </x:c>
+      <x:c r="E259" s="0" t="n">
+        <x:v>2254.957</x:v>
+      </x:c>
+      <x:c r="F259" s="0" t="n">
+        <x:v>10545.043</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260" spans="1:6">
+      <x:c r="B260" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C260" s="0" t="n">
+        <x:v>15420</x:v>
+      </x:c>
+      <x:c r="D260" s="0" t="n">
+        <x:v>2570</x:v>
+      </x:c>
+      <x:c r="E260" s="0" t="n">
+        <x:v>1377.33</x:v>
+      </x:c>
+      <x:c r="F260" s="0" t="n">
+        <x:v>11472.67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261" spans="1:6">
+      <x:c r="B261" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="C261" s="0" t="n">
+        <x:v>15480</x:v>
+      </x:c>
+      <x:c r="D261" s="0" t="n">
+        <x:v>2580</x:v>
+      </x:c>
+      <x:c r="E261" s="0" t="n">
+        <x:v>2302.69</x:v>
+      </x:c>
+      <x:c r="F261" s="0" t="n">
+        <x:v>10597.31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262" spans="1:6">
+      <x:c r="B262" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="C262" s="0" t="n">
+        <x:v>15540</x:v>
+      </x:c>
+      <x:c r="D262" s="0" t="n">
+        <x:v>2590</x:v>
+      </x:c>
+      <x:c r="E262" s="0" t="n">
+        <x:v>2038.223</x:v>
+      </x:c>
+      <x:c r="F262" s="0" t="n">
+        <x:v>10911.777</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263" spans="1:6">
+      <x:c r="B263" s="0" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="C263" s="0" t="n">
+        <x:v>15600</x:v>
+      </x:c>
+      <x:c r="D263" s="0" t="n">
+        <x:v>2600</x:v>
+      </x:c>
+      <x:c r="E263" s="0" t="n">
+        <x:v>1954.196</x:v>
+      </x:c>
+      <x:c r="F263" s="0" t="n">
+        <x:v>11045.804</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264" spans="1:6">
+      <x:c r="B264" s="0" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="C264" s="0" t="n">
+        <x:v>15660</x:v>
+      </x:c>
+      <x:c r="D264" s="0" t="n">
+        <x:v>2610</x:v>
+      </x:c>
+      <x:c r="E264" s="0" t="n">
+        <x:v>2989.074</x:v>
+      </x:c>
+      <x:c r="F264" s="0" t="n">
+        <x:v>10060.926</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265" spans="1:6">
+      <x:c r="B265" s="0" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C265" s="0" t="n">
+        <x:v>15720</x:v>
+      </x:c>
+      <x:c r="D265" s="0" t="n">
+        <x:v>2620</x:v>
+      </x:c>
+      <x:c r="E265" s="0" t="n">
+        <x:v>2123.581</x:v>
+      </x:c>
+      <x:c r="F265" s="0" t="n">
+        <x:v>10976.419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266" spans="1:6">
+      <x:c r="B266" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="C266" s="0" t="n">
+        <x:v>15780</x:v>
+      </x:c>
+      <x:c r="D266" s="0" t="n">
+        <x:v>2630</x:v>
+      </x:c>
+      <x:c r="E266" s="0" t="n">
+        <x:v>2439.717</x:v>
+      </x:c>
+      <x:c r="F266" s="0" t="n">
+        <x:v>10710.283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267" spans="1:6">
+      <x:c r="B267" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="n">
+        <x:v>15840</x:v>
+      </x:c>
+      <x:c r="D267" s="0" t="n">
+        <x:v>2640</x:v>
+      </x:c>
+      <x:c r="E267" s="0" t="n">
+        <x:v>1686.559</x:v>
+      </x:c>
+      <x:c r="F267" s="0" t="n">
+        <x:v>11513.441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268" spans="1:6">
+      <x:c r="B268" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="C268" s="0" t="n">
+        <x:v>15900</x:v>
+      </x:c>
+      <x:c r="D268" s="0" t="n">
+        <x:v>2650</x:v>
+      </x:c>
+      <x:c r="E268" s="0" t="n">
+        <x:v>2279.806</x:v>
+      </x:c>
+      <x:c r="F268" s="0" t="n">
+        <x:v>10970.194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269" spans="1:6">
+      <x:c r="B269" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="C269" s="0" t="n">
+        <x:v>15960</x:v>
+      </x:c>
+      <x:c r="D269" s="0" t="n">
+        <x:v>2660</x:v>
+      </x:c>
+      <x:c r="E269" s="0" t="n">
+        <x:v>1983.274</x:v>
+      </x:c>
+      <x:c r="F269" s="0" t="n">
+        <x:v>11316.726</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270" spans="1:6">
+      <x:c r="B270" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C270" s="0" t="n">
+        <x:v>16020</x:v>
+      </x:c>
+      <x:c r="D270" s="0" t="n">
+        <x:v>2670</x:v>
+      </x:c>
+      <x:c r="E270" s="0" t="n">
+        <x:v>2369.427</x:v>
+      </x:c>
+      <x:c r="F270" s="0" t="n">
+        <x:v>10980.573</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:6">
+      <x:c r="B271" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="C271" s="0" t="n">
+        <x:v>16080</x:v>
+      </x:c>
+      <x:c r="D271" s="0" t="n">
+        <x:v>2680</x:v>
+      </x:c>
+      <x:c r="E271" s="0" t="n">
+        <x:v>2371.525</x:v>
+      </x:c>
+      <x:c r="F271" s="0" t="n">
+        <x:v>11028.475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272" spans="1:6">
+      <x:c r="B272" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C272" s="0" t="n">
+        <x:v>16140</x:v>
+      </x:c>
+      <x:c r="D272" s="0" t="n">
+        <x:v>2690</x:v>
+      </x:c>
+      <x:c r="E272" s="0" t="n">
+        <x:v>1659.402</x:v>
+      </x:c>
+      <x:c r="F272" s="0" t="n">
+        <x:v>11790.598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273" spans="1:6">
+      <x:c r="B273" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="C273" s="0" t="n">
+        <x:v>16200</x:v>
+      </x:c>
+      <x:c r="D273" s="0" t="n">
+        <x:v>2700</x:v>
+      </x:c>
+      <x:c r="E273" s="0" t="n">
+        <x:v>1949.781</x:v>
+      </x:c>
+      <x:c r="F273" s="0" t="n">
+        <x:v>11550.219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274" spans="1:6">
+      <x:c r="B274" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="C274" s="0" t="n">
+        <x:v>16260</x:v>
+      </x:c>
+      <x:c r="D274" s="0" t="n">
+        <x:v>2710</x:v>
+      </x:c>
+      <x:c r="E274" s="0" t="n">
+        <x:v>2527.034</x:v>
+      </x:c>
+      <x:c r="F274" s="0" t="n">
+        <x:v>11022.966</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:6">
+      <x:c r="B275" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="C275" s="0" t="n">
+        <x:v>16320</x:v>
+      </x:c>
+      <x:c r="D275" s="0" t="n">
+        <x:v>2720</x:v>
+      </x:c>
+      <x:c r="E275" s="0" t="n">
+        <x:v>2612.119</x:v>
+      </x:c>
+      <x:c r="F275" s="0" t="n">
+        <x:v>10987.881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276" spans="1:6">
+      <x:c r="B276" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="C276" s="0" t="n">
+        <x:v>16380</x:v>
+      </x:c>
+      <x:c r="D276" s="0" t="n">
+        <x:v>2730</x:v>
+      </x:c>
+      <x:c r="E276" s="0" t="n">
+        <x:v>2192.611</x:v>
+      </x:c>
+      <x:c r="F276" s="0" t="n">
+        <x:v>11457.389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277" spans="1:6">
+      <x:c r="B277" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C277" s="0" t="n">
+        <x:v>16440</x:v>
+      </x:c>
+      <x:c r="D277" s="0" t="n">
+        <x:v>2740</x:v>
+      </x:c>
+      <x:c r="E277" s="0" t="n">
+        <x:v>1599.565</x:v>
+      </x:c>
+      <x:c r="F277" s="0" t="n">
+        <x:v>12100.435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278" spans="1:6">
+      <x:c r="B278" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C278" s="0" t="n">
+        <x:v>16500</x:v>
+      </x:c>
+      <x:c r="D278" s="0" t="n">
+        <x:v>2750</x:v>
+      </x:c>
+      <x:c r="E278" s="0" t="n">
+        <x:v>3065.353</x:v>
+      </x:c>
+      <x:c r="F278" s="0" t="n">
+        <x:v>10684.647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279" spans="1:6">
+      <x:c r="B279" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="C279" s="0" t="n">
+        <x:v>16560</x:v>
+      </x:c>
+      <x:c r="D279" s="0" t="n">
+        <x:v>2760</x:v>
+      </x:c>
+      <x:c r="E279" s="0" t="n">
+        <x:v>2313.861</x:v>
+      </x:c>
+      <x:c r="F279" s="0" t="n">
+        <x:v>11486.139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280" spans="1:6">
+      <x:c r="B280" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="C280" s="0" t="n">
+        <x:v>16620</x:v>
+      </x:c>
+      <x:c r="D280" s="0" t="n">
+        <x:v>2770</x:v>
+      </x:c>
+      <x:c r="E280" s="0" t="n">
+        <x:v>1695.15</x:v>
+      </x:c>
+      <x:c r="F280" s="0" t="n">
+        <x:v>12154.85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281" spans="1:6">
+      <x:c r="B281" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="C281" s="0" t="n">
+        <x:v>16680</x:v>
+      </x:c>
+      <x:c r="D281" s="0" t="n">
+        <x:v>2780</x:v>
+      </x:c>
+      <x:c r="E281" s="0" t="n">
+        <x:v>2312.307</x:v>
+      </x:c>
+      <x:c r="F281" s="0" t="n">
+        <x:v>11587.693</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282" spans="1:6">
+      <x:c r="B282" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C282" s="0" t="n">
+        <x:v>16740</x:v>
+      </x:c>
+      <x:c r="D282" s="0" t="n">
+        <x:v>2790</x:v>
+      </x:c>
+      <x:c r="E282" s="0" t="n">
+        <x:v>2714.235</x:v>
+      </x:c>
+      <x:c r="F282" s="0" t="n">
+        <x:v>11235.765</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283" spans="1:6">
+      <x:c r="B283" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="C283" s="0" t="n">
+        <x:v>16800</x:v>
+      </x:c>
+      <x:c r="D283" s="0" t="n">
+        <x:v>2800</x:v>
+      </x:c>
+      <x:c r="E283" s="0" t="n">
+        <x:v>2389.795</x:v>
+      </x:c>
+      <x:c r="F283" s="0" t="n">
+        <x:v>11610.205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:6">
+      <x:c r="B284" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="C284" s="0" t="n">
+        <x:v>16860</x:v>
+      </x:c>
+      <x:c r="D284" s="0" t="n">
+        <x:v>2810</x:v>
+      </x:c>
+      <x:c r="E284" s="0" t="n">
+        <x:v>2012.393</x:v>
+      </x:c>
+      <x:c r="F284" s="0" t="n">
+        <x:v>12037.607</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285" spans="1:6">
+      <x:c r="B285" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="C285" s="0" t="n">
+        <x:v>16920</x:v>
+      </x:c>
+      <x:c r="D285" s="0" t="n">
+        <x:v>2820</x:v>
+      </x:c>
+      <x:c r="E285" s="0" t="n">
+        <x:v>3166.545</x:v>
+      </x:c>
+      <x:c r="F285" s="0" t="n">
+        <x:v>10933.455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:6">
+      <x:c r="B286" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="C286" s="0" t="n">
+        <x:v>16980</x:v>
+      </x:c>
+      <x:c r="D286" s="0" t="n">
+        <x:v>2830</x:v>
+      </x:c>
+      <x:c r="E286" s="0" t="n">
+        <x:v>1876.724</x:v>
+      </x:c>
+      <x:c r="F286" s="0" t="n">
+        <x:v>12273.276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287" spans="1:6">
+      <x:c r="B287" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C287" s="0" t="n">
+        <x:v>17040</x:v>
+      </x:c>
+      <x:c r="D287" s="0" t="n">
+        <x:v>2840</x:v>
+      </x:c>
+      <x:c r="E287" s="0" t="n">
+        <x:v>2502.399</x:v>
+      </x:c>
+      <x:c r="F287" s="0" t="n">
+        <x:v>11697.601</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:6">
+      <x:c r="B288" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C288" s="0" t="n">
+        <x:v>17100</x:v>
+      </x:c>
+      <x:c r="D288" s="0" t="n">
+        <x:v>2850</x:v>
+      </x:c>
+      <x:c r="E288" s="0" t="n">
+        <x:v>2501.156</x:v>
+      </x:c>
+      <x:c r="F288" s="0" t="n">
+        <x:v>11748.844</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:6">
+      <x:c r="B289" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="C289" s="0" t="n">
+        <x:v>17160</x:v>
+      </x:c>
+      <x:c r="D289" s="0" t="n">
+        <x:v>2860</x:v>
+      </x:c>
+      <x:c r="E289" s="0" t="n">
+        <x:v>2873.464</x:v>
+      </x:c>
+      <x:c r="F289" s="0" t="n">
+        <x:v>11426.536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:6">
+      <x:c r="B290" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="C290" s="0" t="n">
+        <x:v>17220</x:v>
+      </x:c>
+      <x:c r="D290" s="0" t="n">
+        <x:v>2870</x:v>
+      </x:c>
+      <x:c r="E290" s="0" t="n">
+        <x:v>3022.611</x:v>
+      </x:c>
+      <x:c r="F290" s="0" t="n">
+        <x:v>11327.389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:6">
+      <x:c r="B291" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="C291" s="0" t="n">
+        <x:v>17280</x:v>
+      </x:c>
+      <x:c r="D291" s="0" t="n">
+        <x:v>2880</x:v>
+      </x:c>
+      <x:c r="E291" s="0" t="n">
+        <x:v>3584.004</x:v>
+      </x:c>
+      <x:c r="F291" s="0" t="n">
+        <x:v>10815.996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:6">
+      <x:c r="B292" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C292" s="0" t="n">
+        <x:v>17340</x:v>
+      </x:c>
+      <x:c r="D292" s="0" t="n">
+        <x:v>2890</x:v>
+      </x:c>
+      <x:c r="E292" s="0" t="n">
+        <x:v>2614.545</x:v>
+      </x:c>
+      <x:c r="F292" s="0" t="n">
+        <x:v>11835.455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:6">
+      <x:c r="B293" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="C293" s="0" t="n">
+        <x:v>17400</x:v>
+      </x:c>
+      <x:c r="D293" s="0" t="n">
+        <x:v>2900</x:v>
+      </x:c>
+      <x:c r="E293" s="0" t="n">
+        <x:v>2223.758</x:v>
+      </x:c>
+      <x:c r="F293" s="0" t="n">
+        <x:v>12276.242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:6">
+      <x:c r="B294" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C294" s="0" t="n">
+        <x:v>17460</x:v>
+      </x:c>
+      <x:c r="D294" s="0" t="n">
+        <x:v>2910</x:v>
+      </x:c>
+      <x:c r="E294" s="0" t="n">
+        <x:v>2176.767</x:v>
+      </x:c>
+      <x:c r="F294" s="0" t="n">
+        <x:v>12373.233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:6">
+      <x:c r="B295" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="C295" s="0" t="n">
+        <x:v>17520</x:v>
+      </x:c>
+      <x:c r="D295" s="0" t="n">
+        <x:v>2920</x:v>
+      </x:c>
+      <x:c r="E295" s="0" t="n">
+        <x:v>3412.86</x:v>
+      </x:c>
+      <x:c r="F295" s="0" t="n">
+        <x:v>11187.14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:6">
+      <x:c r="B296" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="C296" s="0" t="n">
+        <x:v>17580</x:v>
+      </x:c>
+      <x:c r="D296" s="0" t="n">
+        <x:v>2930</x:v>
+      </x:c>
+      <x:c r="E296" s="0" t="n">
+        <x:v>2324.701</x:v>
+      </x:c>
+      <x:c r="F296" s="0" t="n">
+        <x:v>12325.299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:6">
+      <x:c r="B297" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C297" s="0" t="n">
+        <x:v>17640</x:v>
+      </x:c>
+      <x:c r="D297" s="0" t="n">
+        <x:v>2940</x:v>
+      </x:c>
+      <x:c r="E297" s="0" t="n">
+        <x:v>3647.677</x:v>
+      </x:c>
+      <x:c r="F297" s="0" t="n">
+        <x:v>11052.323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:6">
+      <x:c r="B298" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="C298" s="0" t="n">
+        <x:v>17700</x:v>
+      </x:c>
+      <x:c r="D298" s="0" t="n">
+        <x:v>2950</x:v>
+      </x:c>
+      <x:c r="E298" s="0" t="n">
+        <x:v>3057.594</x:v>
+      </x:c>
+      <x:c r="F298" s="0" t="n">
+        <x:v>11692.406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:6">
+      <x:c r="B299" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="C299" s="0" t="n">
+        <x:v>17760</x:v>
+      </x:c>
+      <x:c r="D299" s="0" t="n">
+        <x:v>2960</x:v>
+      </x:c>
+      <x:c r="E299" s="0" t="n">
+        <x:v>3474.92</x:v>
+      </x:c>
+      <x:c r="F299" s="0" t="n">
+        <x:v>11325.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:6">
+      <x:c r="B300" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C300" s="0" t="n">
+        <x:v>17820</x:v>
+      </x:c>
+      <x:c r="D300" s="0" t="n">
+        <x:v>2970</x:v>
+      </x:c>
+      <x:c r="E300" s="0" t="n">
+        <x:v>2032.991</x:v>
+      </x:c>
+      <x:c r="F300" s="0" t="n">
+        <x:v>12817.009</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:6">
+      <x:c r="B301" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="C301" s="0" t="n">
+        <x:v>17880</x:v>
+      </x:c>
+      <x:c r="D301" s="0" t="n">
+        <x:v>2980</x:v>
+      </x:c>
+      <x:c r="E301" s="0" t="n">
+        <x:v>1878.792</x:v>
+      </x:c>
+      <x:c r="F301" s="0" t="n">
+        <x:v>13021.208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:6">
+      <x:c r="B302" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="C302" s="0" t="n">
+        <x:v>17940</x:v>
+      </x:c>
+      <x:c r="D302" s="0" t="n">
+        <x:v>2990</x:v>
+      </x:c>
+      <x:c r="E302" s="0" t="n">
+        <x:v>3132.231</x:v>
+      </x:c>
+      <x:c r="F302" s="0" t="n">
+        <x:v>11817.769</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Reports/XlsxReports/FinancialBalanceResults.xlsx
+++ b/Reports/XlsxReports/FinancialBalanceResults.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Vendor</x:t>
   </x:si>
@@ -179,6 +179,156 @@
   </x:si>
   <x:si>
     <x:t>Vendor#49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor#99</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -242,8 +392,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F53" totalsRowShown="0">
-  <x:autoFilter ref="B2:F53"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F103" totalsRowShown="0">
+  <x:autoFilter ref="B2:F103"/>
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Vendor"/>
     <x:tableColumn id="2" name="Incomes"/>
@@ -543,7 +693,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F52"/>
+  <x:dimension ref="A1:F102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -553,7 +703,7 @@
     <x:col min="2" max="2" width="11.280625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.700625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.860625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.800625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="16.470625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -596,16 +746,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>0.4120434</x:v>
+        <x:v>2.610975</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>-0.4120434</x:v>
+        <x:v>7.389025</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -613,16 +763,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>3.299997</x:v>
+        <x:v>8.272733</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>-3.299997</x:v>
+        <x:v>11.727267</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -630,16 +780,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>3.264676</x:v>
+        <x:v>10.11981</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>-3.264676</x:v>
+        <x:v>19.88019</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -647,16 +797,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>40</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>8.462675</x:v>
+        <x:v>18.8737</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>-8.462675</x:v>
+        <x:v>21.1263</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -664,16 +814,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D8" s="0" t="n">
         <x:v>50</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>8.755647</x:v>
+        <x:v>15.20558</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>-8.755647</x:v>
+        <x:v>34.79442</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -681,16 +831,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>60</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>12.95779</x:v>
+        <x:v>24.60543</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>-12.95779</x:v>
+        <x:v>35.39457</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -698,16 +848,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>70</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>4.207786</x:v>
+        <x:v>15.80904</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>-4.207786</x:v>
+        <x:v>54.19096</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -715,16 +865,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>80</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>15.8176</x:v>
+        <x:v>32.05811</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>-15.8176</x:v>
+        <x:v>47.94189</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -732,16 +882,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
         <x:v>90</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>16.20012</x:v>
+        <x:v>25.97425</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>-16.20012</x:v>
+        <x:v>64.02575</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -749,16 +899,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>100</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>28.47503</x:v>
+        <x:v>54.61756</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>-28.47503</x:v>
+        <x:v>45.38244</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -766,16 +916,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
         <x:v>110</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>13.56449</x:v>
+        <x:v>23.88523</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>-13.56449</x:v>
+        <x:v>86.11477</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -783,16 +933,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>120</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>29.80528</x:v>
+        <x:v>55.54117</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>-29.80528</x:v>
+        <x:v>64.45883</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -800,16 +950,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>29.19266</x:v>
+        <x:v>35.68166</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>-29.19266</x:v>
+        <x:v>94.31834</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -817,16 +967,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>140</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>140</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>31.34806</x:v>
+        <x:v>63.43305</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>-31.34806</x:v>
+        <x:v>76.56695</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -834,16 +984,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>150</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>17.71996</x:v>
+        <x:v>34.1184</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>-17.71996</x:v>
+        <x:v>115.8816</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -851,16 +1001,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>160</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>42.39048</x:v>
+        <x:v>70.61238</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>-42.39048</x:v>
+        <x:v>89.38762</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -868,16 +1018,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>170</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
         <x:v>170</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>23.64563</x:v>
+        <x:v>25.20087</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>-23.64563</x:v>
+        <x:v>144.79913</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -885,16 +1035,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>52.62321</x:v>
+        <x:v>88.92001</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>-52.62321</x:v>
+        <x:v>91.07999</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -902,16 +1052,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>190</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>190</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>39.48447</x:v>
+        <x:v>72.23679</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>-39.48447</x:v>
+        <x:v>117.76321</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -919,16 +1069,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>200</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>40.78744</x:v>
+        <x:v>69.34193</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>-40.78744</x:v>
+        <x:v>130.65807</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -936,16 +1086,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>210</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>210</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>44.99131</x:v>
+        <x:v>71.00981</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>-44.99131</x:v>
+        <x:v>138.99019</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -953,16 +1103,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>220</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>220</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>40.26102</x:v>
+        <x:v>105.1738</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>-40.26102</x:v>
+        <x:v>114.8262</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -970,16 +1120,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>230</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>230</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>58.66875</x:v>
+        <x:v>101.129</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>-58.66875</x:v>
+        <x:v>128.871</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -987,16 +1137,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>240</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>62.63298</x:v>
+        <x:v>107.1747</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>-62.63298</x:v>
+        <x:v>132.8253</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -1004,16 +1154,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>250</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
         <x:v>250</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>55.7188</x:v>
+        <x:v>63.88058</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>-55.7188</x:v>
+        <x:v>186.11942</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -1021,16 +1171,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>260</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
         <x:v>260</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>25.01829</x:v>
+        <x:v>70.96484</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>-25.01829</x:v>
+        <x:v>189.03516</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -1038,16 +1188,16 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>270</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>270</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>25.36769</x:v>
+        <x:v>97.28204</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>-25.36769</x:v>
+        <x:v>172.71796</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -1055,16 +1205,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>280</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>78.96057</x:v>
+        <x:v>150.1277</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>-78.96057</x:v>
+        <x:v>129.8723</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -1072,16 +1222,16 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>290</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>290</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>65.59234</x:v>
+        <x:v>80.6423</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>-65.59234</x:v>
+        <x:v>209.3577</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -1089,16 +1239,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>300</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>9.606586</x:v>
+        <x:v>72.80664</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>-9.606586</x:v>
+        <x:v>227.19336</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -1106,16 +1256,16 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>310</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>310</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>88.02409</x:v>
+        <x:v>108.0581</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>-88.02409</x:v>
+        <x:v>201.9419</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -1123,16 +1273,16 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>320</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>320</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>6.504354</x:v>
+        <x:v>33.04539</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>-6.504354</x:v>
+        <x:v>286.95461</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -1140,16 +1290,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>330</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>0.8012741</x:v>
+        <x:v>78.66747</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>-0.8012741</x:v>
+        <x:v>251.33253</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -1157,16 +1307,16 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>340</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>340</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>29.72623</x:v>
+        <x:v>60.12769</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>-29.72623</x:v>
+        <x:v>279.87231</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -1174,16 +1324,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>350</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>350</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>67.784</x:v>
+        <x:v>164.7564</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>-67.784</x:v>
+        <x:v>185.2436</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -1191,16 +1341,16 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>360</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>37.54523</x:v>
+        <x:v>63.52671</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>-37.54523</x:v>
+        <x:v>296.47329</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -1208,16 +1358,16 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>370</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>370</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>71.25931</x:v>
+        <x:v>177.9532</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>-71.25931</x:v>
+        <x:v>192.0468</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
@@ -1225,16 +1375,16 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>380</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>380</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>34.80025</x:v>
+        <x:v>104.3789</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>-34.80025</x:v>
+        <x:v>275.6211</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:6">
@@ -1242,16 +1392,16 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>390</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>62.8996</x:v>
+        <x:v>94.36099</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>-62.8996</x:v>
+        <x:v>295.63901</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:6">
@@ -1259,16 +1409,16 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>400</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>400</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>37.01719</x:v>
+        <x:v>129.5151</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>-37.01719</x:v>
+        <x:v>270.4849</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:6">
@@ -1276,16 +1426,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>410</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>410</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>40.85001</x:v>
+        <x:v>158.2186</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>-40.85001</x:v>
+        <x:v>251.7814</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:6">
@@ -1293,16 +1443,16 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>420</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>420</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>111.8153</x:v>
+        <x:v>236.4352</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>-111.8153</x:v>
+        <x:v>183.5648</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:6">
@@ -1310,16 +1460,16 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>430</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>430</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>22.34167</x:v>
+        <x:v>93.07321</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>-22.34167</x:v>
+        <x:v>336.92679</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:6">
@@ -1327,16 +1477,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>440</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>440</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>4.704753</x:v>
+        <x:v>19.16848</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>-4.704753</x:v>
+        <x:v>420.83152</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:6">
@@ -1344,16 +1494,16 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>900</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>450</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>37.25253</x:v>
+        <x:v>172.0569</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>-37.25253</x:v>
+        <x:v>277.9431</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:6">
@@ -1361,16 +1511,16 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>460</x:v>
+        <x:v>920</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>460</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>37.32212</x:v>
+        <x:v>88.40519</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>-37.32212</x:v>
+        <x:v>371.59481</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:6">
@@ -1378,16 +1528,16 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>470</x:v>
+        <x:v>940</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>470</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>56.95984</x:v>
+        <x:v>88.75694</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>-56.95984</x:v>
+        <x:v>381.24306</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:6">
@@ -1395,16 +1545,16 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>480</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>480</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>69.80109</x:v>
+        <x:v>153.5566</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>-69.80109</x:v>
+        <x:v>326.4434</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:6">
@@ -1412,16 +1562,866 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>490</x:v>
+        <x:v>980</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>490</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>84.47229</x:v>
+        <x:v>106.866</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>-84.47229</x:v>
+        <x:v>383.134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:6">
+      <x:c r="B53" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="E53" s="0" t="n">
+        <x:v>124.4326</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>375.5674</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:6">
+      <x:c r="B54" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C54" s="0" t="n">
+        <x:v>1020</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="n">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="E54" s="0" t="n">
+        <x:v>133.1597</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>376.8403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:6">
+      <x:c r="B55" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="n">
+        <x:v>1040</x:v>
+      </x:c>
+      <x:c r="D55" s="0" t="n">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="E55" s="0" t="n">
+        <x:v>215.091</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>304.909</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:6">
+      <x:c r="B56" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="n">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="n">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="n">
+        <x:v>178.7833</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>351.2167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:6">
+      <x:c r="B57" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="n">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="D57" s="0" t="n">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="E57" s="0" t="n">
+        <x:v>254.795</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>285.205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:6">
+      <x:c r="B58" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="n">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="n">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="n">
+        <x:v>167.2614</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>382.7386</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:6">
+      <x:c r="B59" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C59" s="0" t="n">
+        <x:v>1120</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="n">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="E59" s="0" t="n">
+        <x:v>229.6507</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>330.3493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:6">
+      <x:c r="B60" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="n">
+        <x:v>1140</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="n">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="n">
+        <x:v>128.7307</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>441.2693</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:6">
+      <x:c r="B61" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="n">
+        <x:v>1160</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="n">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>232.4213</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>347.5787</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:6">
+      <x:c r="B62" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C62" s="0" t="n">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="n">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="E62" s="0" t="n">
+        <x:v>170.2757</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="n">
+        <x:v>419.7243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:6">
+      <x:c r="B63" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C63" s="0" t="n">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="n">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="E63" s="0" t="n">
+        <x:v>327.7053</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="n">
+        <x:v>272.2947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:6">
+      <x:c r="B64" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="n">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="n">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
+        <x:v>132.4544</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="n">
+        <x:v>477.5456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:6">
+      <x:c r="B65" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="n">
+        <x:v>1240</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="n">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
+        <x:v>286.9627</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="n">
+        <x:v>333.0373</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:6">
+      <x:c r="B66" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="n">
+        <x:v>1260</x:v>
+      </x:c>
+      <x:c r="D66" s="0" t="n">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="E66" s="0" t="n">
+        <x:v>172.9188</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="n">
+        <x:v>457.0812</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:6">
+      <x:c r="B67" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="n">
+        <x:v>1280</x:v>
+      </x:c>
+      <x:c r="D67" s="0" t="n">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="E67" s="0" t="n">
+        <x:v>289.9797</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="n">
+        <x:v>350.0203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:6">
+      <x:c r="B68" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="n">
+        <x:v>1300</x:v>
+      </x:c>
+      <x:c r="D68" s="0" t="n">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="E68" s="0" t="n">
+        <x:v>147.8464</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="n">
+        <x:v>502.1536</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:6">
+      <x:c r="B69" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="n">
+        <x:v>1320</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="n">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="E69" s="0" t="n">
+        <x:v>291.2761</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="n">
+        <x:v>368.7239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:6">
+      <x:c r="B70" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C70" s="0" t="n">
+        <x:v>1340</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="n">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>99.32108</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="n">
+        <x:v>570.67892</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:6">
+      <x:c r="B71" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C71" s="0" t="n">
+        <x:v>1360</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="n">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="E71" s="0" t="n">
+        <x:v>335.92</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="n">
+        <x:v>344.08</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:6">
+      <x:c r="B72" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C72" s="0" t="n">
+        <x:v>1380</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="n">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="E72" s="0" t="n">
+        <x:v>262.3336</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="n">
+        <x:v>427.6664</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:6">
+      <x:c r="B73" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="n">
+        <x:v>1400</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>242.6968</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>457.3032</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:6">
+      <x:c r="B74" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="n">
+        <x:v>1420</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>240.0808</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="n">
+        <x:v>469.9192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:6">
+      <x:c r="B75" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="n">
+        <x:v>1440</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>344.2051</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>375.7949</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:6">
+      <x:c r="B76" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="n">
+        <x:v>1460</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="n">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>320.9748</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>409.0252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:6">
+      <x:c r="B77" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="n">
+        <x:v>1480</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="n">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>330.4554</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>409.5446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:6">
+      <x:c r="B78" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="n">
+        <x:v>1500</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="n">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>191.6418</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="n">
+        <x:v>558.3582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:6">
+      <x:c r="B79" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="n">
+        <x:v>1520</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="n">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>207.4357</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="n">
+        <x:v>552.5643</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:6">
+      <x:c r="B80" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="n">
+        <x:v>1540</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="n">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="n">
+        <x:v>277.434</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="n">
+        <x:v>492.566</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:6">
+      <x:c r="B81" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C81" s="0" t="n">
+        <x:v>1560</x:v>
+      </x:c>
+      <x:c r="D81" s="0" t="n">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="E81" s="0" t="n">
+        <x:v>418.2128</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="n">
+        <x:v>361.7872</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:6">
+      <x:c r="B82" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C82" s="0" t="n">
+        <x:v>1580</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="n">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="E82" s="0" t="n">
+        <x:v>219.6807</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="n">
+        <x:v>570.3193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:6">
+      <x:c r="B83" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C83" s="0" t="n">
+        <x:v>1600</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="n">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="E83" s="0" t="n">
+        <x:v>194.1511</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="n">
+        <x:v>605.8489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:6">
+      <x:c r="B84" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C84" s="0" t="n">
+        <x:v>1620</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="n">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="E84" s="0" t="n">
+        <x:v>282.3454</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="n">
+        <x:v>527.6546</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:6">
+      <x:c r="B85" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C85" s="0" t="n">
+        <x:v>1640</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="n">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="E85" s="0" t="n">
+        <x:v>84.67882</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="n">
+        <x:v>735.32118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:6">
+      <x:c r="B86" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C86" s="0" t="n">
+        <x:v>1660</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="n">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="E86" s="0" t="n">
+        <x:v>197.8606</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
+        <x:v>632.1394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:6">
+      <x:c r="B87" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C87" s="0" t="n">
+        <x:v>1680</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="n">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="E87" s="0" t="n">
+        <x:v>148.5508</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="n">
+        <x:v>691.4492</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:6">
+      <x:c r="B88" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C88" s="0" t="n">
+        <x:v>1700</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="n">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="E88" s="0" t="n">
+        <x:v>400.1226</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="n">
+        <x:v>449.8774</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:6">
+      <x:c r="B89" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C89" s="0" t="n">
+        <x:v>1720</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="n">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="E89" s="0" t="n">
+        <x:v>151.7582</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="n">
+        <x:v>708.2418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:6">
+      <x:c r="B90" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C90" s="0" t="n">
+        <x:v>1740</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="n">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="E90" s="0" t="n">
+        <x:v>418.4305</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="n">
+        <x:v>451.5695</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:6">
+      <x:c r="B91" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C91" s="0" t="n">
+        <x:v>1760</x:v>
+      </x:c>
+      <x:c r="D91" s="0" t="n">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="E91" s="0" t="n">
+        <x:v>241.7195</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="n">
+        <x:v>638.2805</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:6">
+      <x:c r="B92" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C92" s="0" t="n">
+        <x:v>1780</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="n">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="n">
+        <x:v>215.3366</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="n">
+        <x:v>674.6634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:6">
+      <x:c r="B93" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C93" s="0" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="D93" s="0" t="n">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="E93" s="0" t="n">
+        <x:v>291.409</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="n">
+        <x:v>608.591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:6">
+      <x:c r="B94" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C94" s="0" t="n">
+        <x:v>1820</x:v>
+      </x:c>
+      <x:c r="D94" s="0" t="n">
+        <x:v>910</x:v>
+      </x:c>
+      <x:c r="E94" s="0" t="n">
+        <x:v>351.1682</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="n">
+        <x:v>558.8318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:6">
+      <x:c r="B95" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C95" s="0" t="n">
+        <x:v>1840</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="n">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="E95" s="0" t="n">
+        <x:v>517.9055</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="n">
+        <x:v>402.0945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:6">
+      <x:c r="B96" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C96" s="0" t="n">
+        <x:v>1860</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="n">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="E96" s="0" t="n">
+        <x:v>201.2979</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="n">
+        <x:v>728.7021</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:6">
+      <x:c r="B97" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C97" s="0" t="n">
+        <x:v>1880</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="n">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c r="E97" s="0" t="n">
+        <x:v>40.95085</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="n">
+        <x:v>899.04915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:6">
+      <x:c r="B98" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C98" s="0" t="n">
+        <x:v>1900</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="n">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="E98" s="0" t="n">
+        <x:v>363.2312</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="n">
+        <x:v>586.7688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:6">
+      <x:c r="B99" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C99" s="0" t="n">
+        <x:v>1920</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="n">
+        <x:v>960</x:v>
+      </x:c>
+      <x:c r="E99" s="0" t="n">
+        <x:v>184.4978</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="n">
+        <x:v>775.5022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:6">
+      <x:c r="B100" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C100" s="0" t="n">
+        <x:v>1940</x:v>
+      </x:c>
+      <x:c r="D100" s="0" t="n">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="E100" s="0" t="n">
+        <x:v>183.1792</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="n">
+        <x:v>786.8208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:6">
+      <x:c r="B101" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C101" s="0" t="n">
+        <x:v>1960</x:v>
+      </x:c>
+      <x:c r="D101" s="0" t="n">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="E101" s="0" t="n">
+        <x:v>313.5115</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="n">
+        <x:v>666.4885</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:6">
+      <x:c r="B102" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C102" s="0" t="n">
+        <x:v>1980</x:v>
+      </x:c>
+      <x:c r="D102" s="0" t="n">
+        <x:v>990</x:v>
+      </x:c>
+      <x:c r="E102" s="0" t="n">
+        <x:v>215.913</x:v>
+      </x:c>
+      <x:c r="F102" s="0" t="n">
+        <x:v>774.087</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
